--- a/excel/FactorialAnalysis.xlsx
+++ b/excel/FactorialAnalysis.xlsx
@@ -192,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -281,12 +281,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -601,7 +595,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,10 +621,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,7 +840,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,7 +916,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1530,11 +1520,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59587973"/>
-        <c:axId val="16894022"/>
+        <c:axId val="41238189"/>
+        <c:axId val="13872350"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59587973"/>
+        <c:axId val="41238189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,12 +1566,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16894022"/>
+        <c:crossAx val="13872350"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16894022"/>
+        <c:axId val="13872350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59587973"/>
+        <c:crossAx val="41238189"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1651,7 +1641,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2239,11 +2229,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4112872"/>
-        <c:axId val="19317491"/>
+        <c:axId val="65964204"/>
+        <c:axId val="42448428"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4112872"/>
+        <c:axId val="65964204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,12 +2275,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19317491"/>
+        <c:crossAx val="42448428"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19317491"/>
+        <c:axId val="42448428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4112872"/>
+        <c:crossAx val="65964204"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2364,16 +2354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398160</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>593640</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>212400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2381,8 +2371,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9763920" y="10800720"/>
-        <a:ext cx="6096960" cy="3323160"/>
+        <a:off x="13479480" y="10577880"/>
+        <a:ext cx="7542360" cy="3313800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2401,9 +2391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>593640</xdr:colOff>
+      <xdr:colOff>593280</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2411,8 +2401,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9775080" y="27757080"/>
-        <a:ext cx="6085800" cy="3192120"/>
+        <a:off x="12326040" y="27738000"/>
+        <a:ext cx="7531200" cy="3191760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2432,11 +2422,11 @@
   </sheetPr>
   <dimension ref="B1:AE225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X73" activeCellId="0" sqref="X73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.71"/>
@@ -2536,7 +2526,7 @@
       <c r="Y4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AA4" s="7" t="s">
@@ -2551,7 +2541,7 @@
       <c r="AD4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2562,101 +2552,101 @@
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="11" t="n">
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <f aca="false">F5*G5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="10" t="n">
         <f aca="false">F5*H5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="10" t="n">
         <f aca="false">F5*I5</f>
         <v>1</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="10" t="n">
         <f aca="false">G5*H5</f>
         <v>1</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="10" t="n">
         <f aca="false">G5*I5</f>
         <v>1</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="10" t="n">
         <f aca="false">H5*I5</f>
         <v>1</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="10" t="n">
         <f aca="false">F5*G5*H5</f>
         <v>-1</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="10" t="n">
         <f aca="false">F5*G5*I5</f>
         <v>-1</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="10" t="n">
         <f aca="false">F5*H5*I5</f>
         <v>-1</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="10" t="n">
         <f aca="false">G5*H5*I5</f>
         <v>-1</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <f aca="false">F5*G5*H5*I5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="V5" s="14" t="n">
+      <c r="V5" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="W5" s="14" t="n">
+      <c r="W5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="X5" s="14" t="n">
+      <c r="X5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="Y5" s="14" t="n">
+      <c r="Y5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="10" t="n">
         <f aca="false">AVERAGE(U5:Y5)</f>
         <v>10.8</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="10" t="n">
         <f aca="false">U5-$Z5</f>
         <v>11.2</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="10" t="n">
         <f aca="false">V5-$Z5</f>
         <v>10.2</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="10" t="n">
         <f aca="false">W5-$Z5</f>
         <v>-7.8</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="10" t="n">
         <f aca="false">X5-$Z5</f>
         <v>-6.8</v>
       </c>
-      <c r="AE5" s="15" t="n">
+      <c r="AE5" s="14" t="n">
         <f aca="false">Y5-$Z5</f>
         <v>-6.8</v>
       </c>
@@ -2668,101 +2658,101 @@
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17" t="n">
+      <c r="E6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16" t="n">
         <f aca="false">F6*G6</f>
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="16" t="n">
         <f aca="false">F6*H6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="17" t="n">
+      <c r="L6" s="16" t="n">
         <f aca="false">F6*I6</f>
         <v>-1</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="16" t="n">
         <f aca="false">G6*H6</f>
         <v>1</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" s="16" t="n">
         <f aca="false">G6*I6</f>
         <v>-1</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="16" t="n">
         <f aca="false">H6*I6</f>
         <v>-1</v>
       </c>
-      <c r="P6" s="17" t="n">
+      <c r="P6" s="16" t="n">
         <f aca="false">F6*G6*H6</f>
         <v>-1</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="16" t="n">
         <f aca="false">F6*G6*I6</f>
         <v>1</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="16" t="n">
         <f aca="false">F6*H6*I6</f>
         <v>1</v>
       </c>
-      <c r="S6" s="17" t="n">
+      <c r="S6" s="16" t="n">
         <f aca="false">G6*H6*I6</f>
         <v>1</v>
       </c>
-      <c r="T6" s="18" t="n">
+      <c r="T6" s="17" t="n">
         <f aca="false">F6*G6*H6*I6</f>
         <v>-1</v>
       </c>
-      <c r="U6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="20" t="n">
+      <c r="U6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="W6" s="20" t="n">
+      <c r="W6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="X6" s="20" t="n">
+      <c r="X6" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="Y6" s="20" t="n">
+      <c r="Y6" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="Z6" s="17" t="n">
+      <c r="Z6" s="16" t="n">
         <f aca="false">AVERAGE(U6:Y6)</f>
         <v>2.8</v>
       </c>
-      <c r="AA6" s="17" t="n">
+      <c r="AA6" s="16" t="n">
         <f aca="false">U6-$Z6</f>
         <v>-1.8</v>
       </c>
-      <c r="AB6" s="17" t="n">
+      <c r="AB6" s="16" t="n">
         <f aca="false">V6-$Z6</f>
         <v>-0.8</v>
       </c>
-      <c r="AC6" s="17" t="n">
+      <c r="AC6" s="16" t="n">
         <f aca="false">W6-$Z6</f>
         <v>-0.8</v>
       </c>
-      <c r="AD6" s="17" t="n">
+      <c r="AD6" s="16" t="n">
         <f aca="false">X6-$Z6</f>
         <v>1.2</v>
       </c>
-      <c r="AE6" s="21" t="n">
+      <c r="AE6" s="20" t="n">
         <f aca="false">Y6-$Z6</f>
         <v>2.2</v>
       </c>
@@ -2774,6156 +2764,6156 @@
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="17" t="n">
+      <c r="E7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="16" t="n">
         <f aca="false">F7*G7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="16" t="n">
         <f aca="false">F7*H7</f>
         <v>-1</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="16" t="n">
         <f aca="false">F7*I7</f>
         <v>1</v>
       </c>
-      <c r="M7" s="17" t="n">
+      <c r="M7" s="16" t="n">
         <f aca="false">G7*H7</f>
         <v>-1</v>
       </c>
-      <c r="N7" s="17" t="n">
+      <c r="N7" s="16" t="n">
         <f aca="false">G7*I7</f>
         <v>1</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="16" t="n">
         <f aca="false">H7*I7</f>
         <v>-1</v>
       </c>
-      <c r="P7" s="17" t="n">
+      <c r="P7" s="16" t="n">
         <f aca="false">F7*G7*H7</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="16" t="n">
         <f aca="false">F7*G7*I7</f>
         <v>-1</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="16" t="n">
         <f aca="false">F7*H7*I7</f>
         <v>1</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="16" t="n">
         <f aca="false">G7*H7*I7</f>
         <v>1</v>
       </c>
-      <c r="T7" s="18" t="n">
+      <c r="T7" s="17" t="n">
         <f aca="false">F7*G7*H7*I7</f>
         <v>-1</v>
       </c>
-      <c r="U7" s="19" t="n">
+      <c r="U7" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="V7" s="20" t="n">
+      <c r="V7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="W7" s="20" t="n">
+      <c r="W7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="X7" s="20" t="n">
+      <c r="X7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="Y7" s="20" t="n">
+      <c r="Y7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="Z7" s="17" t="n">
+      <c r="Z7" s="16" t="n">
         <f aca="false">AVERAGE(U7:Y7)</f>
         <v>3.6</v>
       </c>
-      <c r="AA7" s="17" t="n">
+      <c r="AA7" s="16" t="n">
         <f aca="false">U7-$Z7</f>
         <v>0.4</v>
       </c>
-      <c r="AB7" s="17" t="n">
+      <c r="AB7" s="16" t="n">
         <f aca="false">V7-$Z7</f>
         <v>-0.6</v>
       </c>
-      <c r="AC7" s="17" t="n">
+      <c r="AC7" s="16" t="n">
         <f aca="false">W7-$Z7</f>
         <v>0.4</v>
       </c>
-      <c r="AD7" s="17" t="n">
+      <c r="AD7" s="16" t="n">
         <f aca="false">X7-$Z7</f>
         <v>0.4</v>
       </c>
-      <c r="AE7" s="21" t="n">
+      <c r="AE7" s="20" t="n">
         <f aca="false">Y7-$Z7</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="E8" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17" t="n">
+      <c r="E8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16" t="n">
         <f aca="false">F8*G8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="16" t="n">
         <f aca="false">F8*H8</f>
         <v>-1</v>
       </c>
-      <c r="L8" s="17" t="n">
+      <c r="L8" s="16" t="n">
         <f aca="false">F8*I8</f>
         <v>-1</v>
       </c>
-      <c r="M8" s="17" t="n">
+      <c r="M8" s="16" t="n">
         <f aca="false">G8*H8</f>
         <v>-1</v>
       </c>
-      <c r="N8" s="17" t="n">
+      <c r="N8" s="16" t="n">
         <f aca="false">G8*I8</f>
         <v>-1</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="16" t="n">
         <f aca="false">H8*I8</f>
         <v>1</v>
       </c>
-      <c r="P8" s="17" t="n">
+      <c r="P8" s="16" t="n">
         <f aca="false">F8*G8*H8</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="16" t="n">
         <f aca="false">F8*G8*I8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="16" t="n">
         <f aca="false">F8*H8*I8</f>
         <v>-1</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="16" t="n">
         <f aca="false">G8*H8*I8</f>
         <v>-1</v>
       </c>
-      <c r="T8" s="18" t="n">
+      <c r="T8" s="17" t="n">
         <f aca="false">F8*G8*H8*I8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="19" t="n">
+      <c r="U8" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="V8" s="20" t="n">
+      <c r="V8" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="W8" s="20" t="n">
+      <c r="W8" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="X8" s="20" t="n">
+      <c r="X8" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" s="20" t="n">
+      <c r="Y8" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" s="17" t="n">
+      <c r="Z8" s="16" t="n">
         <f aca="false">AVERAGE(U8:Y8)</f>
         <v>6.2</v>
       </c>
-      <c r="AA8" s="17" t="n">
+      <c r="AA8" s="16" t="n">
         <f aca="false">U8-$Z8</f>
         <v>-2.2</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="16" t="n">
         <f aca="false">V8-$Z8</f>
         <v>2.8</v>
       </c>
-      <c r="AC8" s="17" t="n">
+      <c r="AC8" s="16" t="n">
         <f aca="false">W8-$Z8</f>
         <v>2.8</v>
       </c>
-      <c r="AD8" s="17" t="n">
+      <c r="AD8" s="16" t="n">
         <f aca="false">X8-$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="AE8" s="21" t="n">
+      <c r="AE8" s="20" t="n">
         <f aca="false">Y8-$Z8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="17" t="n">
+      <c r="E9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="16" t="n">
         <f aca="false">F9*G9</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="16" t="n">
         <f aca="false">F9*H9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="17" t="n">
+      <c r="L9" s="16" t="n">
         <f aca="false">F9*I9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="17" t="n">
+      <c r="M9" s="16" t="n">
         <f aca="false">G9*H9</f>
         <v>-1</v>
       </c>
-      <c r="N9" s="17" t="n">
+      <c r="N9" s="16" t="n">
         <f aca="false">G9*I9</f>
         <v>-1</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="16" t="n">
         <f aca="false">H9*I9</f>
         <v>1</v>
       </c>
-      <c r="P9" s="17" t="n">
+      <c r="P9" s="16" t="n">
         <f aca="false">F9*G9*H9</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="16" t="n">
         <f aca="false">F9*G9*I9</f>
         <v>1</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <f aca="false">F9*H9*I9</f>
         <v>-1</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="16" t="n">
         <f aca="false">G9*H9*I9</f>
         <v>1</v>
       </c>
-      <c r="T9" s="18" t="n">
+      <c r="T9" s="17" t="n">
         <f aca="false">F9*G9*H9*I9</f>
         <v>-1</v>
       </c>
-      <c r="U9" s="19" t="n">
+      <c r="U9" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="V9" s="20" t="n">
+      <c r="V9" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="W9" s="20" t="n">
+      <c r="W9" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="X9" s="20" t="n">
+      <c r="X9" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Y9" s="20" t="n">
+      <c r="Y9" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" s="17" t="n">
+      <c r="Z9" s="16" t="n">
         <f aca="false">AVERAGE(U9:Y9)</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="17" t="n">
+      <c r="AA9" s="16" t="n">
         <f aca="false">U9-$Z9</f>
         <v>-1</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="16" t="n">
         <f aca="false">V9-$Z9</f>
         <v>-1</v>
       </c>
-      <c r="AC9" s="17" t="n">
+      <c r="AC9" s="16" t="n">
         <f aca="false">W9-$Z9</f>
         <v>1</v>
       </c>
-      <c r="AD9" s="17" t="n">
+      <c r="AD9" s="16" t="n">
         <f aca="false">X9-$Z9</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="21" t="n">
+      <c r="AE9" s="20" t="n">
         <f aca="false">Y9-$Z9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17" t="n">
+      <c r="E10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16" t="n">
         <f aca="false">F10*G10</f>
         <v>-1</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="16" t="n">
         <f aca="false">F10*H10</f>
         <v>1</v>
       </c>
-      <c r="L10" s="17" t="n">
+      <c r="L10" s="16" t="n">
         <f aca="false">F10*I10</f>
         <v>-1</v>
       </c>
-      <c r="M10" s="17" t="n">
+      <c r="M10" s="16" t="n">
         <f aca="false">G10*H10</f>
         <v>-1</v>
       </c>
-      <c r="N10" s="17" t="n">
+      <c r="N10" s="16" t="n">
         <f aca="false">G10*I10</f>
         <v>1</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="16" t="n">
         <f aca="false">H10*I10</f>
         <v>-1</v>
       </c>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="16" t="n">
         <f aca="false">F10*G10*H10</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="16" t="n">
         <f aca="false">F10*G10*I10</f>
         <v>-1</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="16" t="n">
         <f aca="false">F10*H10*I10</f>
         <v>1</v>
       </c>
-      <c r="S10" s="17" t="n">
+      <c r="S10" s="16" t="n">
         <f aca="false">G10*H10*I10</f>
         <v>-1</v>
       </c>
-      <c r="T10" s="18" t="n">
+      <c r="T10" s="17" t="n">
         <f aca="false">F10*G10*H10*I10</f>
         <v>1</v>
       </c>
-      <c r="U10" s="19" t="n">
+      <c r="U10" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="V10" s="20" t="n">
+      <c r="V10" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="W10" s="20" t="n">
+      <c r="W10" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="X10" s="20" t="n">
+      <c r="X10" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Y10" s="20" t="n">
+      <c r="Y10" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="Z10" s="17" t="n">
+      <c r="Z10" s="16" t="n">
         <f aca="false">AVERAGE(U10:Y10)</f>
         <v>6.8</v>
       </c>
-      <c r="AA10" s="17" t="n">
+      <c r="AA10" s="16" t="n">
         <f aca="false">U10-$Z10</f>
         <v>-1.8</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="16" t="n">
         <f aca="false">V10-$Z10</f>
         <v>-1.8</v>
       </c>
-      <c r="AC10" s="17" t="n">
+      <c r="AC10" s="16" t="n">
         <f aca="false">W10-$Z10</f>
         <v>0.2</v>
       </c>
-      <c r="AD10" s="17" t="n">
+      <c r="AD10" s="16" t="n">
         <f aca="false">X10-$Z10</f>
         <v>1.2</v>
       </c>
-      <c r="AE10" s="21" t="n">
+      <c r="AE10" s="20" t="n">
         <f aca="false">Y10-$Z10</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="17" t="n">
+      <c r="E11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="16" t="n">
         <f aca="false">F11*G11</f>
         <v>-1</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="16" t="n">
         <f aca="false">F11*H11</f>
         <v>-1</v>
       </c>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="16" t="n">
         <f aca="false">F11*I11</f>
         <v>1</v>
       </c>
-      <c r="M11" s="17" t="n">
+      <c r="M11" s="16" t="n">
         <f aca="false">G11*H11</f>
         <v>1</v>
       </c>
-      <c r="N11" s="17" t="n">
+      <c r="N11" s="16" t="n">
         <f aca="false">G11*I11</f>
         <v>-1</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="16" t="n">
         <f aca="false">H11*I11</f>
         <v>-1</v>
       </c>
-      <c r="P11" s="17" t="n">
+      <c r="P11" s="16" t="n">
         <f aca="false">F11*G11*H11</f>
         <v>-1</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="16" t="n">
         <f aca="false">F11*G11*I11</f>
         <v>1</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="16" t="n">
         <f aca="false">F11*H11*I11</f>
         <v>1</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="16" t="n">
         <f aca="false">G11*H11*I11</f>
         <v>-1</v>
       </c>
-      <c r="T11" s="18" t="n">
+      <c r="T11" s="17" t="n">
         <f aca="false">F11*G11*H11*I11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="19" t="n">
+      <c r="U11" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="V11" s="20" t="n">
+      <c r="V11" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="W11" s="20" t="n">
+      <c r="W11" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="X11" s="20" t="n">
+      <c r="X11" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Y11" s="20" t="n">
+      <c r="Y11" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Z11" s="17" t="n">
+      <c r="Z11" s="16" t="n">
         <f aca="false">AVERAGE(U11:Y11)</f>
         <v>7</v>
       </c>
-      <c r="AA11" s="17" t="n">
+      <c r="AA11" s="16" t="n">
         <f aca="false">U11-$Z11</f>
         <v>-1</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="16" t="n">
         <f aca="false">V11-$Z11</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="17" t="n">
+      <c r="AC11" s="16" t="n">
         <f aca="false">W11-$Z11</f>
         <v>-1</v>
       </c>
-      <c r="AD11" s="17" t="n">
+      <c r="AD11" s="16" t="n">
         <f aca="false">X11-$Z11</f>
         <v>1</v>
       </c>
-      <c r="AE11" s="21" t="n">
+      <c r="AE11" s="20" t="n">
         <f aca="false">Y11-$Z11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17" t="n">
+      <c r="E12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16" t="n">
         <f aca="false">F12*G12</f>
         <v>-1</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="16" t="n">
         <f aca="false">F12*H12</f>
         <v>-1</v>
       </c>
-      <c r="L12" s="17" t="n">
+      <c r="L12" s="16" t="n">
         <f aca="false">F12*I12</f>
         <v>-1</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="M12" s="16" t="n">
         <f aca="false">G12*H12</f>
         <v>1</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N12" s="16" t="n">
         <f aca="false">G12*I12</f>
         <v>1</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="16" t="n">
         <f aca="false">H12*I12</f>
         <v>1</v>
       </c>
-      <c r="P12" s="17" t="n">
+      <c r="P12" s="16" t="n">
         <f aca="false">F12*G12*H12</f>
         <v>-1</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="16" t="n">
         <f aca="false">F12*G12*I12</f>
         <v>-1</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="16" t="n">
         <f aca="false">F12*H12*I12</f>
         <v>-1</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="16" t="n">
         <f aca="false">G12*H12*I12</f>
         <v>1</v>
       </c>
-      <c r="T12" s="18" t="n">
+      <c r="T12" s="17" t="n">
         <f aca="false">F12*G12*H12*I12</f>
         <v>-1</v>
       </c>
-      <c r="U12" s="19" t="n">
+      <c r="U12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="V12" s="20" t="n">
+      <c r="V12" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="W12" s="20" t="n">
+      <c r="W12" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="X12" s="20" t="n">
+      <c r="X12" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="Y12" s="20" t="n">
+      <c r="Y12" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Z12" s="17" t="n">
+      <c r="Z12" s="16" t="n">
         <f aca="false">AVERAGE(U12:Y12)</f>
         <v>6.2</v>
       </c>
-      <c r="AA12" s="17" t="n">
+      <c r="AA12" s="16" t="n">
         <f aca="false">U12-$Z12</f>
         <v>-3.2</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="16" t="n">
         <f aca="false">V12-$Z12</f>
         <v>-0.2</v>
       </c>
-      <c r="AC12" s="17" t="n">
+      <c r="AC12" s="16" t="n">
         <f aca="false">W12-$Z12</f>
         <v>0.8</v>
       </c>
-      <c r="AD12" s="17" t="n">
+      <c r="AD12" s="16" t="n">
         <f aca="false">X12-$Z12</f>
         <v>0.8</v>
       </c>
-      <c r="AE12" s="21" t="n">
+      <c r="AE12" s="20" t="n">
         <f aca="false">Y12-$Z12</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="17" t="n">
+      <c r="E13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="16" t="n">
         <f aca="false">F13*G13</f>
         <v>-1</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="16" t="n">
         <f aca="false">F13*H13</f>
         <v>-1</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="L13" s="16" t="n">
         <f aca="false">F13*I13</f>
         <v>-1</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="M13" s="16" t="n">
         <f aca="false">G13*H13</f>
         <v>1</v>
       </c>
-      <c r="N13" s="17" t="n">
+      <c r="N13" s="16" t="n">
         <f aca="false">G13*I13</f>
         <v>1</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="16" t="n">
         <f aca="false">H13*I13</f>
         <v>1</v>
       </c>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="16" t="n">
         <f aca="false">F13*G13*H13</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="16" t="n">
         <f aca="false">F13*G13*I13</f>
         <v>1</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="16" t="n">
         <f aca="false">F13*H13*I13</f>
         <v>1</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="16" t="n">
         <f aca="false">G13*H13*I13</f>
         <v>-1</v>
       </c>
-      <c r="T13" s="18" t="n">
+      <c r="T13" s="17" t="n">
         <f aca="false">F13*G13*H13*I13</f>
         <v>-1</v>
       </c>
-      <c r="U13" s="19" t="n">
+      <c r="U13" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="V13" s="20" t="n">
+      <c r="V13" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="W13" s="20" t="n">
+      <c r="W13" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="X13" s="20" t="n">
+      <c r="X13" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Y13" s="20" t="n">
+      <c r="Y13" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="Z13" s="17" t="n">
+      <c r="Z13" s="16" t="n">
         <f aca="false">AVERAGE(U13:Y13)</f>
         <v>5.4</v>
       </c>
-      <c r="AA13" s="17" t="n">
+      <c r="AA13" s="16" t="n">
         <f aca="false">U13-$Z13</f>
         <v>-0.4</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="16" t="n">
         <f aca="false">V13-$Z13</f>
         <v>-1.4</v>
       </c>
-      <c r="AC13" s="17" t="n">
+      <c r="AC13" s="16" t="n">
         <f aca="false">W13-$Z13</f>
         <v>-2.4</v>
       </c>
-      <c r="AD13" s="17" t="n">
+      <c r="AD13" s="16" t="n">
         <f aca="false">X13-$Z13</f>
         <v>2.6</v>
       </c>
-      <c r="AE13" s="21" t="n">
+      <c r="AE13" s="20" t="n">
         <f aca="false">Y13-$Z13</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17" t="n">
+      <c r="E14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16" t="n">
         <f aca="false">F14*G14</f>
         <v>-1</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="16" t="n">
         <f aca="false">F14*H14</f>
         <v>-1</v>
       </c>
-      <c r="L14" s="17" t="n">
+      <c r="L14" s="16" t="n">
         <f aca="false">F14*I14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="17" t="n">
+      <c r="M14" s="16" t="n">
         <f aca="false">G14*H14</f>
         <v>1</v>
       </c>
-      <c r="N14" s="17" t="n">
+      <c r="N14" s="16" t="n">
         <f aca="false">G14*I14</f>
         <v>-1</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="16" t="n">
         <f aca="false">H14*I14</f>
         <v>-1</v>
       </c>
-      <c r="P14" s="17" t="n">
+      <c r="P14" s="16" t="n">
         <f aca="false">F14*G14*H14</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="16" t="n">
         <f aca="false">F14*G14*I14</f>
         <v>-1</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="16" t="n">
         <f aca="false">F14*H14*I14</f>
         <v>-1</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="16" t="n">
         <f aca="false">G14*H14*I14</f>
         <v>1</v>
       </c>
-      <c r="T14" s="18" t="n">
+      <c r="T14" s="17" t="n">
         <f aca="false">F14*G14*H14*I14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="19" t="n">
+      <c r="U14" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="V14" s="20" t="n">
+      <c r="V14" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="W14" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="20" t="n">
+      <c r="W14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="Y14" s="20" t="n">
+      <c r="Y14" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="Z14" s="17" t="n">
+      <c r="Z14" s="16" t="n">
         <f aca="false">AVERAGE(U14:Y14)</f>
         <v>2.6</v>
       </c>
-      <c r="AA14" s="17" t="n">
+      <c r="AA14" s="16" t="n">
         <f aca="false">U14-$Z14</f>
         <v>0.4</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="16" t="n">
         <f aca="false">V14-$Z14</f>
         <v>1.4</v>
       </c>
-      <c r="AC14" s="17" t="n">
+      <c r="AC14" s="16" t="n">
         <f aca="false">W14-$Z14</f>
         <v>-1.6</v>
       </c>
-      <c r="AD14" s="17" t="n">
+      <c r="AD14" s="16" t="n">
         <f aca="false">X14-$Z14</f>
         <v>-0.6</v>
       </c>
-      <c r="AE14" s="21" t="n">
+      <c r="AE14" s="20" t="n">
         <f aca="false">Y14-$Z14</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="17" t="n">
+      <c r="E15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="16" t="n">
         <f aca="false">F15*G15</f>
         <v>-1</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="16" t="n">
         <f aca="false">F15*H15</f>
         <v>1</v>
       </c>
-      <c r="L15" s="17" t="n">
+      <c r="L15" s="16" t="n">
         <f aca="false">F15*I15</f>
         <v>-1</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="16" t="n">
         <f aca="false">G15*H15</f>
         <v>-1</v>
       </c>
-      <c r="N15" s="17" t="n">
+      <c r="N15" s="16" t="n">
         <f aca="false">G15*I15</f>
         <v>1</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="16" t="n">
         <f aca="false">H15*I15</f>
         <v>-1</v>
       </c>
-      <c r="P15" s="17" t="n">
+      <c r="P15" s="16" t="n">
         <f aca="false">F15*G15*H15</f>
         <v>-1</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="16" t="n">
         <f aca="false">F15*G15*I15</f>
         <v>1</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="16" t="n">
         <f aca="false">F15*H15*I15</f>
         <v>-1</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="16" t="n">
         <f aca="false">G15*H15*I15</f>
         <v>1</v>
       </c>
-      <c r="T15" s="18" t="n">
+      <c r="T15" s="17" t="n">
         <f aca="false">F15*G15*H15*I15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="19" t="n">
+      <c r="U15" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="V15" s="20" t="n">
+      <c r="V15" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="W15" s="20" t="n">
+      <c r="W15" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="X15" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="20" t="n">
+      <c r="X15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="Z15" s="17" t="n">
+      <c r="Z15" s="16" t="n">
         <f aca="false">AVERAGE(U15:Y15)</f>
         <v>2.8</v>
       </c>
-      <c r="AA15" s="17" t="n">
+      <c r="AA15" s="16" t="n">
         <f aca="false">U15-$Z15</f>
         <v>1.2</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="16" t="n">
         <f aca="false">V15-$Z15</f>
         <v>0.2</v>
       </c>
-      <c r="AC15" s="17" t="n">
+      <c r="AC15" s="16" t="n">
         <f aca="false">W15-$Z15</f>
         <v>-0.8</v>
       </c>
-      <c r="AD15" s="17" t="n">
+      <c r="AD15" s="16" t="n">
         <f aca="false">X15-$Z15</f>
         <v>-1.8</v>
       </c>
-      <c r="AE15" s="21" t="n">
+      <c r="AE15" s="20" t="n">
         <f aca="false">Y15-$Z15</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17" t="n">
+      <c r="E16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16" t="n">
         <f aca="false">F16*G16</f>
         <v>-1</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="K16" s="16" t="n">
         <f aca="false">F16*H16</f>
         <v>1</v>
       </c>
-      <c r="L16" s="17" t="n">
+      <c r="L16" s="16" t="n">
         <f aca="false">F16*I16</f>
         <v>1</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="M16" s="16" t="n">
         <f aca="false">G16*H16</f>
         <v>-1</v>
       </c>
-      <c r="N16" s="17" t="n">
+      <c r="N16" s="16" t="n">
         <f aca="false">G16*I16</f>
         <v>-1</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="16" t="n">
         <f aca="false">H16*I16</f>
         <v>1</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="16" t="n">
         <f aca="false">F16*G16*H16</f>
         <v>-1</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="16" t="n">
         <f aca="false">F16*G16*I16</f>
         <v>-1</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="16" t="n">
         <f aca="false">F16*H16*I16</f>
         <v>1</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="16" t="n">
         <f aca="false">G16*H16*I16</f>
         <v>-1</v>
       </c>
-      <c r="T16" s="18" t="n">
+      <c r="T16" s="17" t="n">
         <f aca="false">F16*G16*H16*I16</f>
         <v>-1</v>
       </c>
-      <c r="U16" s="19" t="n">
+      <c r="U16" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="V16" s="20" t="n">
+      <c r="V16" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="W16" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" s="20" t="n">
+      <c r="W16" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="Y16" s="20" t="n">
+      <c r="Y16" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="Z16" s="17" t="n">
+      <c r="Z16" s="16" t="n">
         <f aca="false">AVERAGE(U16:Y16)</f>
         <v>2.2</v>
       </c>
-      <c r="AA16" s="17" t="n">
+      <c r="AA16" s="16" t="n">
         <f aca="false">U16-$Z16</f>
         <v>0.8</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="16" t="n">
         <f aca="false">V16-$Z16</f>
         <v>2.8</v>
       </c>
-      <c r="AC16" s="17" t="n">
+      <c r="AC16" s="16" t="n">
         <f aca="false">W16-$Z16</f>
         <v>-1.2</v>
       </c>
-      <c r="AD16" s="17" t="n">
+      <c r="AD16" s="16" t="n">
         <f aca="false">X16-$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="AE16" s="21" t="n">
+      <c r="AE16" s="20" t="n">
         <f aca="false">Y16-$Z16</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="17" t="n">
+      <c r="E17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="16" t="n">
         <f aca="false">F17*G17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="17" t="n">
+      <c r="K17" s="16" t="n">
         <f aca="false">F17*H17</f>
         <v>-1</v>
       </c>
-      <c r="L17" s="17" t="n">
+      <c r="L17" s="16" t="n">
         <f aca="false">F17*I17</f>
         <v>-1</v>
       </c>
-      <c r="M17" s="17" t="n">
+      <c r="M17" s="16" t="n">
         <f aca="false">G17*H17</f>
         <v>-1</v>
       </c>
-      <c r="N17" s="17" t="n">
+      <c r="N17" s="16" t="n">
         <f aca="false">G17*I17</f>
         <v>-1</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="16" t="n">
         <f aca="false">H17*I17</f>
         <v>1</v>
       </c>
-      <c r="P17" s="17" t="n">
+      <c r="P17" s="16" t="n">
         <f aca="false">F17*G17*H17</f>
         <v>-1</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="16" t="n">
         <f aca="false">F17*G17*I17</f>
         <v>-1</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="16" t="n">
         <f aca="false">F17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="16" t="n">
         <f aca="false">G17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="T17" s="18" t="n">
+      <c r="T17" s="17" t="n">
         <f aca="false">F17*G17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="U17" s="19" t="n">
+      <c r="U17" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="V17" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" s="20" t="n">
+      <c r="V17" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="X17" s="20" t="n">
+      <c r="X17" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="Y17" s="20" t="n">
+      <c r="Y17" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="Z17" s="17" t="n">
+      <c r="Z17" s="16" t="n">
         <f aca="false">AVERAGE(U17:Y17)</f>
         <v>5.8</v>
       </c>
-      <c r="AA17" s="17" t="n">
+      <c r="AA17" s="16" t="n">
         <f aca="false">U17-$Z17</f>
         <v>-3.8</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="16" t="n">
         <f aca="false">V17-$Z17</f>
         <v>-4.8</v>
       </c>
-      <c r="AC17" s="17" t="n">
+      <c r="AC17" s="16" t="n">
         <f aca="false">W17-$Z17</f>
         <v>2.2</v>
       </c>
-      <c r="AD17" s="17" t="n">
+      <c r="AD17" s="16" t="n">
         <f aca="false">X17-$Z17</f>
         <v>3.2</v>
       </c>
-      <c r="AE17" s="21" t="n">
+      <c r="AE17" s="20" t="n">
         <f aca="false">Y17-$Z17</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17" t="n">
+      <c r="E18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16" t="n">
         <f aca="false">F18*G18</f>
         <v>1</v>
       </c>
-      <c r="K18" s="17" t="n">
+      <c r="K18" s="16" t="n">
         <f aca="false">F18*H18</f>
         <v>-1</v>
       </c>
-      <c r="L18" s="17" t="n">
+      <c r="L18" s="16" t="n">
         <f aca="false">F18*I18</f>
         <v>1</v>
       </c>
-      <c r="M18" s="17" t="n">
+      <c r="M18" s="16" t="n">
         <f aca="false">G18*H18</f>
         <v>-1</v>
       </c>
-      <c r="N18" s="17" t="n">
+      <c r="N18" s="16" t="n">
         <f aca="false">G18*I18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="17" t="n">
+      <c r="O18" s="16" t="n">
         <f aca="false">H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="P18" s="17" t="n">
+      <c r="P18" s="16" t="n">
         <f aca="false">F18*G18*H18</f>
         <v>-1</v>
       </c>
-      <c r="Q18" s="17" t="n">
+      <c r="Q18" s="16" t="n">
         <f aca="false">F18*G18*I18</f>
         <v>1</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="16" t="n">
         <f aca="false">F18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="16" t="n">
         <f aca="false">G18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="T18" s="18" t="n">
+      <c r="T18" s="17" t="n">
         <f aca="false">F18*G18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="U18" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" s="20" t="n">
+      <c r="U18" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="W18" s="20" t="n">
+      <c r="W18" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="X18" s="20" t="n">
+      <c r="X18" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="Y18" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="17" t="n">
+      <c r="Y18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="16" t="n">
         <f aca="false">AVERAGE(U18:Y18)</f>
         <v>3.2</v>
       </c>
-      <c r="AA18" s="17" t="n">
+      <c r="AA18" s="16" t="n">
         <f aca="false">U18-$Z18</f>
         <v>-2.2</v>
       </c>
-      <c r="AB18" s="17" t="n">
+      <c r="AB18" s="16" t="n">
         <f aca="false">V18-$Z18</f>
         <v>3.8</v>
       </c>
-      <c r="AC18" s="17" t="n">
+      <c r="AC18" s="16" t="n">
         <f aca="false">W18-$Z18</f>
         <v>-0.2</v>
       </c>
-      <c r="AD18" s="17" t="n">
+      <c r="AD18" s="16" t="n">
         <f aca="false">X18-$Z18</f>
         <v>0.8</v>
       </c>
-      <c r="AE18" s="21" t="n">
+      <c r="AE18" s="20" t="n">
         <f aca="false">Y18-$Z18</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J19" s="17" t="n">
+      <c r="E19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="16" t="n">
         <f aca="false">F19*G19</f>
         <v>1</v>
       </c>
-      <c r="K19" s="17" t="n">
+      <c r="K19" s="16" t="n">
         <f aca="false">F19*H19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="17" t="n">
+      <c r="L19" s="16" t="n">
         <f aca="false">F19*I19</f>
         <v>-1</v>
       </c>
-      <c r="M19" s="17" t="n">
+      <c r="M19" s="16" t="n">
         <f aca="false">G19*H19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="17" t="n">
+      <c r="N19" s="16" t="n">
         <f aca="false">G19*I19</f>
         <v>-1</v>
       </c>
-      <c r="O19" s="17" t="n">
+      <c r="O19" s="16" t="n">
         <f aca="false">H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="P19" s="17" t="n">
+      <c r="P19" s="16" t="n">
         <f aca="false">F19*G19*H19</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="17" t="n">
+      <c r="Q19" s="16" t="n">
         <f aca="false">F19*G19*I19</f>
         <v>-1</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="16" t="n">
         <f aca="false">F19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="16" t="n">
         <f aca="false">G19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="T19" s="18" t="n">
+      <c r="T19" s="17" t="n">
         <f aca="false">F19*G19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="U19" s="19" t="n">
+      <c r="U19" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="20" t="n">
+      <c r="V19" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="W19" s="20" t="n">
+      <c r="W19" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="X19" s="20" t="n">
+      <c r="X19" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Y19" s="20" t="n">
+      <c r="Y19" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="Z19" s="17" t="n">
+      <c r="Z19" s="16" t="n">
         <f aca="false">AVERAGE(U19:Y19)</f>
         <v>5.8</v>
       </c>
-      <c r="AA19" s="17" t="n">
+      <c r="AA19" s="16" t="n">
         <f aca="false">U19-$Z19</f>
         <v>-3.8</v>
       </c>
-      <c r="AB19" s="17" t="n">
+      <c r="AB19" s="16" t="n">
         <f aca="false">V19-$Z19</f>
         <v>-1.8</v>
       </c>
-      <c r="AC19" s="17" t="n">
+      <c r="AC19" s="16" t="n">
         <f aca="false">W19-$Z19</f>
         <v>1.2</v>
       </c>
-      <c r="AD19" s="17" t="n">
+      <c r="AD19" s="16" t="n">
         <f aca="false">X19-$Z19</f>
         <v>2.2</v>
       </c>
-      <c r="AE19" s="21" t="n">
+      <c r="AE19" s="20" t="n">
         <f aca="false">Y19-$Z19</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="23" t="n">
+      <c r="E20" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22" t="n">
         <f aca="false">F20*G20</f>
         <v>1</v>
       </c>
-      <c r="K20" s="23" t="n">
+      <c r="K20" s="22" t="n">
         <f aca="false">F20*H20</f>
         <v>1</v>
       </c>
-      <c r="L20" s="23" t="n">
+      <c r="L20" s="22" t="n">
         <f aca="false">F20*I20</f>
         <v>1</v>
       </c>
-      <c r="M20" s="23" t="n">
+      <c r="M20" s="22" t="n">
         <f aca="false">G20*H20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="23" t="n">
+      <c r="N20" s="22" t="n">
         <f aca="false">G20*I20</f>
         <v>1</v>
       </c>
-      <c r="O20" s="23" t="n">
+      <c r="O20" s="22" t="n">
         <f aca="false">H20*I20</f>
         <v>1</v>
       </c>
-      <c r="P20" s="23" t="n">
+      <c r="P20" s="22" t="n">
         <f aca="false">F20*G20*H20</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="23" t="n">
+      <c r="Q20" s="22" t="n">
         <f aca="false">F20*G20*I20</f>
         <v>1</v>
       </c>
-      <c r="R20" s="23" t="n">
+      <c r="R20" s="22" t="n">
         <f aca="false">F20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="S20" s="23" t="n">
+      <c r="S20" s="22" t="n">
         <f aca="false">G20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="T20" s="24" t="n">
+      <c r="T20" s="23" t="n">
         <f aca="false">F20*G20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="U20" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="26" t="n">
+      <c r="U20" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="26" t="n">
+      <c r="W20" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="X20" s="26" t="n">
+      <c r="X20" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="Y20" s="26" t="n">
+      <c r="Y20" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" s="23" t="n">
+      <c r="Z20" s="22" t="n">
         <f aca="false">AVERAGE(U20:Y20)</f>
         <v>3</v>
       </c>
-      <c r="AA20" s="23" t="n">
+      <c r="AA20" s="22" t="n">
         <f aca="false">U20-$Z20</f>
         <v>-2</v>
       </c>
-      <c r="AB20" s="23" t="n">
+      <c r="AB20" s="22" t="n">
         <f aca="false">V20-$Z20</f>
         <v>-1</v>
       </c>
-      <c r="AC20" s="23" t="n">
+      <c r="AC20" s="22" t="n">
         <f aca="false">W20-$Z20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="23" t="n">
+      <c r="AD20" s="22" t="n">
         <f aca="false">X20-$Z20</f>
         <v>6</v>
       </c>
-      <c r="AE20" s="27" t="n">
+      <c r="AE20" s="26" t="n">
         <f aca="false">Y20-$Z20</f>
         <v>-3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y21" s="28" t="s">
+      <c r="Y21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="29" t="n">
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28" t="n">
         <f aca="false">SUM(AA5:AA20)</f>
         <v>-9.2</v>
       </c>
-      <c r="AB21" s="29" t="n">
+      <c r="AB21" s="28" t="n">
         <f aca="false">SUM(AB5:AB20)</f>
         <v>7.8</v>
       </c>
-      <c r="AC21" s="29" t="n">
+      <c r="AC21" s="28" t="n">
         <f aca="false">SUM(AC5:AC20)</f>
         <v>-7.2</v>
       </c>
-      <c r="AD21" s="29" t="n">
+      <c r="AD21" s="28" t="n">
         <f aca="false">SUM(AD5:AD20)</f>
         <v>1.8</v>
       </c>
-      <c r="AE21" s="15" t="n">
+      <c r="AE21" s="14" t="n">
         <f aca="false">SUM(AE5:AE20)</f>
         <v>6.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="15"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y23" s="30" t="s">
+      <c r="Y23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="31" t="n">
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30" t="n">
         <f aca="false">AVERAGE(AA5:AA20)</f>
         <v>-0.575</v>
       </c>
-      <c r="AB23" s="31" t="n">
+      <c r="AB23" s="30" t="n">
         <f aca="false">AVERAGE(AB5:AB20)</f>
         <v>0.4875</v>
       </c>
-      <c r="AC23" s="31" t="n">
+      <c r="AC23" s="30" t="n">
         <f aca="false">AVERAGE(AC5:AC20)</f>
         <v>-0.45</v>
       </c>
-      <c r="AD23" s="31" t="n">
+      <c r="AD23" s="30" t="n">
         <f aca="false">AVERAGE(AD5:AD20)</f>
         <v>0.1125</v>
       </c>
-      <c r="AE23" s="27" t="n">
+      <c r="AE23" s="26" t="n">
         <f aca="false">AVERAGE(AE5:AE20)</f>
         <v>0.425</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="27"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="33" t="s">
+      <c r="Q28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S28" s="33" t="s">
+      <c r="S28" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T28" s="34" t="s">
+      <c r="T28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="35" t="s">
+      <c r="V28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="W28" s="36" t="s">
+      <c r="W28" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="9" t="n">
         <f aca="false">E5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="10" t="n">
         <f aca="false">F5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="10" t="n">
         <f aca="false">G5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="10" t="n">
         <f aca="false">H5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="10" t="n">
         <f aca="false">I5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="10" t="n">
         <f aca="false">J5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="10" t="n">
         <f aca="false">K5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="10" t="n">
         <f aca="false">L5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="M29" s="11" t="n">
+      <c r="M29" s="10" t="n">
         <f aca="false">M5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="N29" s="11" t="n">
+      <c r="N29" s="10" t="n">
         <f aca="false">N5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="O29" s="11" t="n">
+      <c r="O29" s="10" t="n">
         <f aca="false">O5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="P29" s="11" t="n">
+      <c r="P29" s="10" t="n">
         <f aca="false">P5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="Q29" s="11" t="n">
+      <c r="Q29" s="10" t="n">
         <f aca="false">Q5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="R29" s="11" t="n">
+      <c r="R29" s="10" t="n">
         <f aca="false">R5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="S29" s="11" t="n">
+      <c r="S29" s="10" t="n">
         <f aca="false">S5*$Z5</f>
         <v>-10.8</v>
       </c>
-      <c r="T29" s="15" t="n">
+      <c r="T29" s="14" t="n">
         <f aca="false">T5*$Z5</f>
         <v>10.8</v>
       </c>
-      <c r="W29" s="10" t="n">
+      <c r="W29" s="9" t="n">
         <f aca="false">AA5^2</f>
         <v>125.44</v>
       </c>
-      <c r="X29" s="11" t="n">
+      <c r="X29" s="10" t="n">
         <f aca="false">AB5^2</f>
         <v>104.04</v>
       </c>
-      <c r="Y29" s="11" t="n">
+      <c r="Y29" s="10" t="n">
         <f aca="false">AC5^2</f>
         <v>60.84</v>
       </c>
-      <c r="Z29" s="11" t="n">
+      <c r="Z29" s="10" t="n">
         <f aca="false">AD5^2</f>
         <v>46.24</v>
       </c>
-      <c r="AA29" s="15" t="n">
+      <c r="AA29" s="14" t="n">
         <f aca="false">AE5^2</f>
         <v>46.24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="16" t="n">
+      <c r="E30" s="15" t="n">
         <f aca="false">E6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="F30" s="17" t="n">
+      <c r="F30" s="16" t="n">
         <f aca="false">F6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="G30" s="17" t="n">
+      <c r="G30" s="16" t="n">
         <f aca="false">G6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="H30" s="17" t="n">
+      <c r="H30" s="16" t="n">
         <f aca="false">H6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="I30" s="17" t="n">
+      <c r="I30" s="16" t="n">
         <f aca="false">I6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="J30" s="17" t="n">
+      <c r="J30" s="16" t="n">
         <f aca="false">J6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="K30" s="17" t="n">
+      <c r="K30" s="16" t="n">
         <f aca="false">K6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="L30" s="17" t="n">
+      <c r="L30" s="16" t="n">
         <f aca="false">L6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="M30" s="17" t="n">
+      <c r="M30" s="16" t="n">
         <f aca="false">M6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="N30" s="17" t="n">
+      <c r="N30" s="16" t="n">
         <f aca="false">N6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="O30" s="17" t="n">
+      <c r="O30" s="16" t="n">
         <f aca="false">O6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="P30" s="17" t="n">
+      <c r="P30" s="16" t="n">
         <f aca="false">P6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="Q30" s="17" t="n">
+      <c r="Q30" s="16" t="n">
         <f aca="false">Q6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="R30" s="17" t="n">
+      <c r="R30" s="16" t="n">
         <f aca="false">R6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="S30" s="17" t="n">
+      <c r="S30" s="16" t="n">
         <f aca="false">S6*$Z6</f>
         <v>2.8</v>
       </c>
-      <c r="T30" s="21" t="n">
+      <c r="T30" s="20" t="n">
         <f aca="false">T6*$Z6</f>
         <v>-2.8</v>
       </c>
-      <c r="W30" s="16" t="n">
+      <c r="W30" s="15" t="n">
         <f aca="false">AA6^2</f>
         <v>3.24</v>
       </c>
-      <c r="X30" s="17" t="n">
+      <c r="X30" s="16" t="n">
         <f aca="false">AB6^2</f>
         <v>0.64</v>
       </c>
-      <c r="Y30" s="17" t="n">
+      <c r="Y30" s="16" t="n">
         <f aca="false">AC6^2</f>
         <v>0.64</v>
       </c>
-      <c r="Z30" s="17" t="n">
+      <c r="Z30" s="16" t="n">
         <f aca="false">AD6^2</f>
         <v>1.44</v>
       </c>
-      <c r="AA30" s="21" t="n">
+      <c r="AA30" s="20" t="n">
         <f aca="false">AE6^2</f>
         <v>4.84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="15" t="n">
         <f aca="false">E7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="F31" s="17" t="n">
+      <c r="F31" s="16" t="n">
         <f aca="false">F7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="G31" s="17" t="n">
+      <c r="G31" s="16" t="n">
         <f aca="false">G7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="H31" s="17" t="n">
+      <c r="H31" s="16" t="n">
         <f aca="false">H7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="I31" s="17" t="n">
+      <c r="I31" s="16" t="n">
         <f aca="false">I7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="J31" s="17" t="n">
+      <c r="J31" s="16" t="n">
         <f aca="false">J7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="K31" s="17" t="n">
+      <c r="K31" s="16" t="n">
         <f aca="false">K7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="L31" s="17" t="n">
+      <c r="L31" s="16" t="n">
         <f aca="false">L7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="M31" s="17" t="n">
+      <c r="M31" s="16" t="n">
         <f aca="false">M7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="N31" s="17" t="n">
+      <c r="N31" s="16" t="n">
         <f aca="false">N7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="O31" s="17" t="n">
+      <c r="O31" s="16" t="n">
         <f aca="false">O7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="P31" s="17" t="n">
+      <c r="P31" s="16" t="n">
         <f aca="false">P7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="Q31" s="17" t="n">
+      <c r="Q31" s="16" t="n">
         <f aca="false">Q7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="R31" s="17" t="n">
+      <c r="R31" s="16" t="n">
         <f aca="false">R7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="S31" s="17" t="n">
+      <c r="S31" s="16" t="n">
         <f aca="false">S7*$Z7</f>
         <v>3.6</v>
       </c>
-      <c r="T31" s="21" t="n">
+      <c r="T31" s="20" t="n">
         <f aca="false">T7*$Z7</f>
         <v>-3.6</v>
       </c>
-      <c r="W31" s="16" t="n">
+      <c r="W31" s="15" t="n">
         <f aca="false">AA7^2</f>
         <v>0.16</v>
       </c>
-      <c r="X31" s="17" t="n">
+      <c r="X31" s="16" t="n">
         <f aca="false">AB7^2</f>
         <v>0.36</v>
       </c>
-      <c r="Y31" s="17" t="n">
+      <c r="Y31" s="16" t="n">
         <f aca="false">AC7^2</f>
         <v>0.16</v>
       </c>
-      <c r="Z31" s="17" t="n">
+      <c r="Z31" s="16" t="n">
         <f aca="false">AD7^2</f>
         <v>0.16</v>
       </c>
-      <c r="AA31" s="21" t="n">
+      <c r="AA31" s="20" t="n">
         <f aca="false">AE7^2</f>
         <v>0.36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="15" t="n">
         <f aca="false">E8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="F32" s="17" t="n">
+      <c r="F32" s="16" t="n">
         <f aca="false">F8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="G32" s="17" t="n">
+      <c r="G32" s="16" t="n">
         <f aca="false">G8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="H32" s="17" t="n">
+      <c r="H32" s="16" t="n">
         <f aca="false">H8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="I32" s="17" t="n">
+      <c r="I32" s="16" t="n">
         <f aca="false">I8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="J32" s="17" t="n">
+      <c r="J32" s="16" t="n">
         <f aca="false">J8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="K32" s="17" t="n">
+      <c r="K32" s="16" t="n">
         <f aca="false">K8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="L32" s="17" t="n">
+      <c r="L32" s="16" t="n">
         <f aca="false">L8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="M32" s="17" t="n">
+      <c r="M32" s="16" t="n">
         <f aca="false">M8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="N32" s="17" t="n">
+      <c r="N32" s="16" t="n">
         <f aca="false">N8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="O32" s="17" t="n">
+      <c r="O32" s="16" t="n">
         <f aca="false">O8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="P32" s="17" t="n">
+      <c r="P32" s="16" t="n">
         <f aca="false">P8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="Q32" s="17" t="n">
+      <c r="Q32" s="16" t="n">
         <f aca="false">Q8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="R32" s="17" t="n">
+      <c r="R32" s="16" t="n">
         <f aca="false">R8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="S32" s="17" t="n">
+      <c r="S32" s="16" t="n">
         <f aca="false">S8*$Z8</f>
         <v>-6.2</v>
       </c>
-      <c r="T32" s="21" t="n">
+      <c r="T32" s="20" t="n">
         <f aca="false">T8*$Z8</f>
         <v>6.2</v>
       </c>
-      <c r="W32" s="16" t="n">
+      <c r="W32" s="15" t="n">
         <f aca="false">AA8^2</f>
         <v>4.84</v>
       </c>
-      <c r="X32" s="17" t="n">
+      <c r="X32" s="16" t="n">
         <f aca="false">AB8^2</f>
         <v>7.84</v>
       </c>
-      <c r="Y32" s="17" t="n">
+      <c r="Y32" s="16" t="n">
         <f aca="false">AC8^2</f>
         <v>7.84</v>
       </c>
-      <c r="Z32" s="17" t="n">
+      <c r="Z32" s="16" t="n">
         <f aca="false">AD8^2</f>
         <v>38.44</v>
       </c>
-      <c r="AA32" s="21" t="n">
+      <c r="AA32" s="20" t="n">
         <f aca="false">AE8^2</f>
         <v>7.84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="15" t="n">
         <f aca="false">E9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="F33" s="17" t="n">
+      <c r="F33" s="16" t="n">
         <f aca="false">F9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="G33" s="17" t="n">
+      <c r="G33" s="16" t="n">
         <f aca="false">G9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="H33" s="17" t="n">
+      <c r="H33" s="16" t="n">
         <f aca="false">H9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="I33" s="17" t="n">
+      <c r="I33" s="16" t="n">
         <f aca="false">I9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="J33" s="17" t="n">
+      <c r="J33" s="16" t="n">
         <f aca="false">J9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="K33" s="17" t="n">
+      <c r="K33" s="16" t="n">
         <f aca="false">K9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="L33" s="17" t="n">
+      <c r="L33" s="16" t="n">
         <f aca="false">L9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="M33" s="17" t="n">
+      <c r="M33" s="16" t="n">
         <f aca="false">M9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="N33" s="17" t="n">
+      <c r="N33" s="16" t="n">
         <f aca="false">N9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="O33" s="17" t="n">
+      <c r="O33" s="16" t="n">
         <f aca="false">O9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="P33" s="17" t="n">
+      <c r="P33" s="16" t="n">
         <f aca="false">P9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="Q33" s="17" t="n">
+      <c r="Q33" s="16" t="n">
         <f aca="false">Q9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="R33" s="17" t="n">
+      <c r="R33" s="16" t="n">
         <f aca="false">R9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="S33" s="17" t="n">
+      <c r="S33" s="16" t="n">
         <f aca="false">S9*$Z9</f>
         <v>8</v>
       </c>
-      <c r="T33" s="21" t="n">
+      <c r="T33" s="20" t="n">
         <f aca="false">T9*$Z9</f>
         <v>-8</v>
       </c>
-      <c r="W33" s="16" t="n">
+      <c r="W33" s="15" t="n">
         <f aca="false">AA9^2</f>
         <v>1</v>
       </c>
-      <c r="X33" s="17" t="n">
+      <c r="X33" s="16" t="n">
         <f aca="false">AB9^2</f>
         <v>1</v>
       </c>
-      <c r="Y33" s="17" t="n">
+      <c r="Y33" s="16" t="n">
         <f aca="false">AC9^2</f>
         <v>1</v>
       </c>
-      <c r="Z33" s="17" t="n">
+      <c r="Z33" s="16" t="n">
         <f aca="false">AD9^2</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="21" t="n">
+      <c r="AA33" s="20" t="n">
         <f aca="false">AE9^2</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="15" t="n">
         <f aca="false">E10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="16" t="n">
         <f aca="false">F10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="G34" s="17" t="n">
+      <c r="G34" s="16" t="n">
         <f aca="false">G10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="H34" s="17" t="n">
+      <c r="H34" s="16" t="n">
         <f aca="false">H10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="I34" s="17" t="n">
+      <c r="I34" s="16" t="n">
         <f aca="false">I10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="J34" s="17" t="n">
+      <c r="J34" s="16" t="n">
         <f aca="false">J10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="K34" s="17" t="n">
+      <c r="K34" s="16" t="n">
         <f aca="false">K10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="L34" s="17" t="n">
+      <c r="L34" s="16" t="n">
         <f aca="false">L10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="M34" s="17" t="n">
+      <c r="M34" s="16" t="n">
         <f aca="false">M10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="N34" s="17" t="n">
+      <c r="N34" s="16" t="n">
         <f aca="false">N10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="O34" s="17" t="n">
+      <c r="O34" s="16" t="n">
         <f aca="false">O10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="P34" s="17" t="n">
+      <c r="P34" s="16" t="n">
         <f aca="false">P10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="Q34" s="17" t="n">
+      <c r="Q34" s="16" t="n">
         <f aca="false">Q10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="R34" s="17" t="n">
+      <c r="R34" s="16" t="n">
         <f aca="false">R10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="S34" s="17" t="n">
+      <c r="S34" s="16" t="n">
         <f aca="false">S10*$Z10</f>
         <v>-6.8</v>
       </c>
-      <c r="T34" s="21" t="n">
+      <c r="T34" s="20" t="n">
         <f aca="false">T10*$Z10</f>
         <v>6.8</v>
       </c>
-      <c r="W34" s="16" t="n">
+      <c r="W34" s="15" t="n">
         <f aca="false">AA10^2</f>
         <v>3.24</v>
       </c>
-      <c r="X34" s="17" t="n">
+      <c r="X34" s="16" t="n">
         <f aca="false">AB10^2</f>
         <v>3.24</v>
       </c>
-      <c r="Y34" s="17" t="n">
+      <c r="Y34" s="16" t="n">
         <f aca="false">AC10^2</f>
         <v>0.0400000000000001</v>
       </c>
-      <c r="Z34" s="17" t="n">
+      <c r="Z34" s="16" t="n">
         <f aca="false">AD10^2</f>
         <v>1.44</v>
       </c>
-      <c r="AA34" s="21" t="n">
+      <c r="AA34" s="20" t="n">
         <f aca="false">AE10^2</f>
         <v>4.84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <f aca="false">E11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="F35" s="17" t="n">
+      <c r="F35" s="16" t="n">
         <f aca="false">F11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="G35" s="17" t="n">
+      <c r="G35" s="16" t="n">
         <f aca="false">G11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="H35" s="17" t="n">
+      <c r="H35" s="16" t="n">
         <f aca="false">H11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="I35" s="17" t="n">
+      <c r="I35" s="16" t="n">
         <f aca="false">I11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="J35" s="17" t="n">
+      <c r="J35" s="16" t="n">
         <f aca="false">J11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="K35" s="17" t="n">
+      <c r="K35" s="16" t="n">
         <f aca="false">K11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="L35" s="17" t="n">
+      <c r="L35" s="16" t="n">
         <f aca="false">L11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="M35" s="17" t="n">
+      <c r="M35" s="16" t="n">
         <f aca="false">M11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="N35" s="17" t="n">
+      <c r="N35" s="16" t="n">
         <f aca="false">N11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="O35" s="17" t="n">
+      <c r="O35" s="16" t="n">
         <f aca="false">O11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="P35" s="17" t="n">
+      <c r="P35" s="16" t="n">
         <f aca="false">P11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="Q35" s="17" t="n">
+      <c r="Q35" s="16" t="n">
         <f aca="false">Q11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="R35" s="17" t="n">
+      <c r="R35" s="16" t="n">
         <f aca="false">R11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="S35" s="17" t="n">
+      <c r="S35" s="16" t="n">
         <f aca="false">S11*$Z11</f>
         <v>-7</v>
       </c>
-      <c r="T35" s="21" t="n">
+      <c r="T35" s="20" t="n">
         <f aca="false">T11*$Z11</f>
         <v>7</v>
       </c>
-      <c r="W35" s="16" t="n">
+      <c r="W35" s="15" t="n">
         <f aca="false">AA11^2</f>
         <v>1</v>
       </c>
-      <c r="X35" s="17" t="n">
+      <c r="X35" s="16" t="n">
         <f aca="false">AB11^2</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="17" t="n">
+      <c r="Y35" s="16" t="n">
         <f aca="false">AC11^2</f>
         <v>1</v>
       </c>
-      <c r="Z35" s="17" t="n">
+      <c r="Z35" s="16" t="n">
         <f aca="false">AD11^2</f>
         <v>1</v>
       </c>
-      <c r="AA35" s="21" t="n">
+      <c r="AA35" s="20" t="n">
         <f aca="false">AE11^2</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="16" t="n">
+      <c r="E36" s="15" t="n">
         <f aca="false">E12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="F36" s="17" t="n">
+      <c r="F36" s="16" t="n">
         <f aca="false">F12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="G36" s="17" t="n">
+      <c r="G36" s="16" t="n">
         <f aca="false">G12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H36" s="16" t="n">
         <f aca="false">H12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="I36" s="17" t="n">
+      <c r="I36" s="16" t="n">
         <f aca="false">I12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="J36" s="17" t="n">
+      <c r="J36" s="16" t="n">
         <f aca="false">J12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="K36" s="17" t="n">
+      <c r="K36" s="16" t="n">
         <f aca="false">K12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="L36" s="17" t="n">
+      <c r="L36" s="16" t="n">
         <f aca="false">L12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="M36" s="17" t="n">
+      <c r="M36" s="16" t="n">
         <f aca="false">M12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="N36" s="17" t="n">
+      <c r="N36" s="16" t="n">
         <f aca="false">N12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="O36" s="17" t="n">
+      <c r="O36" s="16" t="n">
         <f aca="false">O12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="P36" s="17" t="n">
+      <c r="P36" s="16" t="n">
         <f aca="false">P12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="Q36" s="17" t="n">
+      <c r="Q36" s="16" t="n">
         <f aca="false">Q12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="R36" s="17" t="n">
+      <c r="R36" s="16" t="n">
         <f aca="false">R12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="S36" s="17" t="n">
+      <c r="S36" s="16" t="n">
         <f aca="false">S12*$Z12</f>
         <v>6.2</v>
       </c>
-      <c r="T36" s="21" t="n">
+      <c r="T36" s="20" t="n">
         <f aca="false">T12*$Z12</f>
         <v>-6.2</v>
       </c>
-      <c r="W36" s="16" t="n">
+      <c r="W36" s="15" t="n">
         <f aca="false">AA12^2</f>
         <v>10.24</v>
       </c>
-      <c r="X36" s="17" t="n">
+      <c r="X36" s="16" t="n">
         <f aca="false">AB12^2</f>
         <v>0.0400000000000001</v>
       </c>
-      <c r="Y36" s="17" t="n">
+      <c r="Y36" s="16" t="n">
         <f aca="false">AC12^2</f>
         <v>0.64</v>
       </c>
-      <c r="Z36" s="17" t="n">
+      <c r="Z36" s="16" t="n">
         <f aca="false">AD12^2</f>
         <v>0.64</v>
       </c>
-      <c r="AA36" s="21" t="n">
+      <c r="AA36" s="20" t="n">
         <f aca="false">AE12^2</f>
         <v>3.24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="16" t="n">
+      <c r="E37" s="15" t="n">
         <f aca="false">E13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="F37" s="17" t="n">
+      <c r="F37" s="16" t="n">
         <f aca="false">F13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="G37" s="17" t="n">
+      <c r="G37" s="16" t="n">
         <f aca="false">G13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H37" s="16" t="n">
         <f aca="false">H13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="I37" s="17" t="n">
+      <c r="I37" s="16" t="n">
         <f aca="false">I13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="J37" s="17" t="n">
+      <c r="J37" s="16" t="n">
         <f aca="false">J13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="K37" s="17" t="n">
+      <c r="K37" s="16" t="n">
         <f aca="false">K13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="L37" s="17" t="n">
+      <c r="L37" s="16" t="n">
         <f aca="false">L13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="M37" s="17" t="n">
+      <c r="M37" s="16" t="n">
         <f aca="false">M13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="N37" s="17" t="n">
+      <c r="N37" s="16" t="n">
         <f aca="false">N13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="O37" s="17" t="n">
+      <c r="O37" s="16" t="n">
         <f aca="false">O13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="P37" s="17" t="n">
+      <c r="P37" s="16" t="n">
         <f aca="false">P13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="Q37" s="17" t="n">
+      <c r="Q37" s="16" t="n">
         <f aca="false">Q13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="R37" s="17" t="n">
+      <c r="R37" s="16" t="n">
         <f aca="false">R13*$Z13</f>
         <v>5.4</v>
       </c>
-      <c r="S37" s="17" t="n">
+      <c r="S37" s="16" t="n">
         <f aca="false">S13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="T37" s="21" t="n">
+      <c r="T37" s="20" t="n">
         <f aca="false">T13*$Z13</f>
         <v>-5.4</v>
       </c>
-      <c r="W37" s="16" t="n">
+      <c r="W37" s="15" t="n">
         <f aca="false">AA13^2</f>
         <v>0.16</v>
       </c>
-      <c r="X37" s="17" t="n">
+      <c r="X37" s="16" t="n">
         <f aca="false">AB13^2</f>
         <v>1.96</v>
       </c>
-      <c r="Y37" s="17" t="n">
+      <c r="Y37" s="16" t="n">
         <f aca="false">AC13^2</f>
         <v>5.76</v>
       </c>
-      <c r="Z37" s="17" t="n">
+      <c r="Z37" s="16" t="n">
         <f aca="false">AD13^2</f>
         <v>6.76</v>
       </c>
-      <c r="AA37" s="21" t="n">
+      <c r="AA37" s="20" t="n">
         <f aca="false">AE13^2</f>
         <v>2.56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="16" t="n">
+      <c r="E38" s="15" t="n">
         <f aca="false">E14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="F38" s="17" t="n">
+      <c r="F38" s="16" t="n">
         <f aca="false">F14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="G38" s="17" t="n">
+      <c r="G38" s="16" t="n">
         <f aca="false">G14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="H38" s="17" t="n">
+      <c r="H38" s="16" t="n">
         <f aca="false">H14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="I38" s="17" t="n">
+      <c r="I38" s="16" t="n">
         <f aca="false">I14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="J38" s="17" t="n">
+      <c r="J38" s="16" t="n">
         <f aca="false">J14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="K38" s="17" t="n">
+      <c r="K38" s="16" t="n">
         <f aca="false">K14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="L38" s="17" t="n">
+      <c r="L38" s="16" t="n">
         <f aca="false">L14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="M38" s="17" t="n">
+      <c r="M38" s="16" t="n">
         <f aca="false">M14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="N38" s="17" t="n">
+      <c r="N38" s="16" t="n">
         <f aca="false">N14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="O38" s="17" t="n">
+      <c r="O38" s="16" t="n">
         <f aca="false">O14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="P38" s="17" t="n">
+      <c r="P38" s="16" t="n">
         <f aca="false">P14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="Q38" s="17" t="n">
+      <c r="Q38" s="16" t="n">
         <f aca="false">Q14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="R38" s="17" t="n">
+      <c r="R38" s="16" t="n">
         <f aca="false">R14*$Z14</f>
         <v>-2.6</v>
       </c>
-      <c r="S38" s="17" t="n">
+      <c r="S38" s="16" t="n">
         <f aca="false">S14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="T38" s="21" t="n">
+      <c r="T38" s="20" t="n">
         <f aca="false">T14*$Z14</f>
         <v>2.6</v>
       </c>
-      <c r="W38" s="16" t="n">
+      <c r="W38" s="15" t="n">
         <f aca="false">AA14^2</f>
         <v>0.16</v>
       </c>
-      <c r="X38" s="17" t="n">
+      <c r="X38" s="16" t="n">
         <f aca="false">AB14^2</f>
         <v>1.96</v>
       </c>
-      <c r="Y38" s="17" t="n">
+      <c r="Y38" s="16" t="n">
         <f aca="false">AC14^2</f>
         <v>2.56</v>
       </c>
-      <c r="Z38" s="17" t="n">
+      <c r="Z38" s="16" t="n">
         <f aca="false">AD14^2</f>
         <v>0.36</v>
       </c>
-      <c r="AA38" s="21" t="n">
+      <c r="AA38" s="20" t="n">
         <f aca="false">AE14^2</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="15" t="n">
         <f aca="false">E15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="F39" s="17" t="n">
+      <c r="F39" s="16" t="n">
         <f aca="false">F15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="G39" s="17" t="n">
+      <c r="G39" s="16" t="n">
         <f aca="false">G15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="H39" s="17" t="n">
+      <c r="H39" s="16" t="n">
         <f aca="false">H15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="I39" s="17" t="n">
+      <c r="I39" s="16" t="n">
         <f aca="false">I15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="J39" s="17" t="n">
+      <c r="J39" s="16" t="n">
         <f aca="false">J15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="K39" s="17" t="n">
+      <c r="K39" s="16" t="n">
         <f aca="false">K15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="L39" s="17" t="n">
+      <c r="L39" s="16" t="n">
         <f aca="false">L15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="M39" s="17" t="n">
+      <c r="M39" s="16" t="n">
         <f aca="false">M15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="N39" s="17" t="n">
+      <c r="N39" s="16" t="n">
         <f aca="false">N15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="O39" s="17" t="n">
+      <c r="O39" s="16" t="n">
         <f aca="false">O15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="P39" s="17" t="n">
+      <c r="P39" s="16" t="n">
         <f aca="false">P15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="Q39" s="17" t="n">
+      <c r="Q39" s="16" t="n">
         <f aca="false">Q15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="R39" s="17" t="n">
+      <c r="R39" s="16" t="n">
         <f aca="false">R15*$Z15</f>
         <v>-2.8</v>
       </c>
-      <c r="S39" s="17" t="n">
+      <c r="S39" s="16" t="n">
         <f aca="false">S15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="T39" s="21" t="n">
+      <c r="T39" s="20" t="n">
         <f aca="false">T15*$Z15</f>
         <v>2.8</v>
       </c>
-      <c r="W39" s="16" t="n">
+      <c r="W39" s="15" t="n">
         <f aca="false">AA15^2</f>
         <v>1.44</v>
       </c>
-      <c r="X39" s="17" t="n">
+      <c r="X39" s="16" t="n">
         <f aca="false">AB15^2</f>
         <v>0.0400000000000001</v>
       </c>
-      <c r="Y39" s="17" t="n">
+      <c r="Y39" s="16" t="n">
         <f aca="false">AC15^2</f>
         <v>0.64</v>
       </c>
-      <c r="Z39" s="17" t="n">
+      <c r="Z39" s="16" t="n">
         <f aca="false">AD15^2</f>
         <v>3.24</v>
       </c>
-      <c r="AA39" s="21" t="n">
+      <c r="AA39" s="20" t="n">
         <f aca="false">AE15^2</f>
         <v>1.44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="15" t="n">
         <f aca="false">E16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="F40" s="17" t="n">
+      <c r="F40" s="16" t="n">
         <f aca="false">F16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="G40" s="17" t="n">
+      <c r="G40" s="16" t="n">
         <f aca="false">G16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="H40" s="17" t="n">
+      <c r="H40" s="16" t="n">
         <f aca="false">H16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="I40" s="17" t="n">
+      <c r="I40" s="16" t="n">
         <f aca="false">I16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="J40" s="17" t="n">
+      <c r="J40" s="16" t="n">
         <f aca="false">J16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="K40" s="17" t="n">
+      <c r="K40" s="16" t="n">
         <f aca="false">K16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="L40" s="17" t="n">
+      <c r="L40" s="16" t="n">
         <f aca="false">L16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="M40" s="17" t="n">
+      <c r="M40" s="16" t="n">
         <f aca="false">M16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="N40" s="17" t="n">
+      <c r="N40" s="16" t="n">
         <f aca="false">N16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="O40" s="17" t="n">
+      <c r="O40" s="16" t="n">
         <f aca="false">O16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="P40" s="17" t="n">
+      <c r="P40" s="16" t="n">
         <f aca="false">P16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="Q40" s="17" t="n">
+      <c r="Q40" s="16" t="n">
         <f aca="false">Q16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="R40" s="17" t="n">
+      <c r="R40" s="16" t="n">
         <f aca="false">R16*$Z16</f>
         <v>2.2</v>
       </c>
-      <c r="S40" s="17" t="n">
+      <c r="S40" s="16" t="n">
         <f aca="false">S16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="T40" s="21" t="n">
+      <c r="T40" s="20" t="n">
         <f aca="false">T16*$Z16</f>
         <v>-2.2</v>
       </c>
-      <c r="W40" s="16" t="n">
+      <c r="W40" s="15" t="n">
         <f aca="false">AA16^2</f>
         <v>0.64</v>
       </c>
-      <c r="X40" s="17" t="n">
+      <c r="X40" s="16" t="n">
         <f aca="false">AB16^2</f>
         <v>7.84</v>
       </c>
-      <c r="Y40" s="17" t="n">
+      <c r="Y40" s="16" t="n">
         <f aca="false">AC16^2</f>
         <v>1.44</v>
       </c>
-      <c r="Z40" s="17" t="n">
+      <c r="Z40" s="16" t="n">
         <f aca="false">AD16^2</f>
         <v>4.84</v>
       </c>
-      <c r="AA40" s="21" t="n">
+      <c r="AA40" s="20" t="n">
         <f aca="false">AE16^2</f>
         <v>0.0400000000000001</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="15" t="n">
         <f aca="false">E17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="F41" s="17" t="n">
+      <c r="F41" s="16" t="n">
         <f aca="false">F17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="G41" s="17" t="n">
+      <c r="G41" s="16" t="n">
         <f aca="false">G17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="H41" s="17" t="n">
+      <c r="H41" s="16" t="n">
         <f aca="false">H17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="I41" s="17" t="n">
+      <c r="I41" s="16" t="n">
         <f aca="false">I17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="J41" s="17" t="n">
+      <c r="J41" s="16" t="n">
         <f aca="false">J17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="K41" s="17" t="n">
+      <c r="K41" s="16" t="n">
         <f aca="false">K17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="L41" s="17" t="n">
+      <c r="L41" s="16" t="n">
         <f aca="false">L17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="M41" s="17" t="n">
+      <c r="M41" s="16" t="n">
         <f aca="false">M17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="N41" s="17" t="n">
+      <c r="N41" s="16" t="n">
         <f aca="false">N17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="O41" s="17" t="n">
+      <c r="O41" s="16" t="n">
         <f aca="false">O17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="P41" s="17" t="n">
+      <c r="P41" s="16" t="n">
         <f aca="false">P17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="Q41" s="17" t="n">
+      <c r="Q41" s="16" t="n">
         <f aca="false">Q17*$Z17</f>
         <v>-5.8</v>
       </c>
-      <c r="R41" s="17" t="n">
+      <c r="R41" s="16" t="n">
         <f aca="false">R17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="S41" s="17" t="n">
+      <c r="S41" s="16" t="n">
         <f aca="false">S17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="T41" s="21" t="n">
+      <c r="T41" s="20" t="n">
         <f aca="false">T17*$Z17</f>
         <v>5.8</v>
       </c>
-      <c r="W41" s="16" t="n">
+      <c r="W41" s="15" t="n">
         <f aca="false">AA17^2</f>
         <v>14.44</v>
       </c>
-      <c r="X41" s="17" t="n">
+      <c r="X41" s="16" t="n">
         <f aca="false">AB17^2</f>
         <v>23.04</v>
       </c>
-      <c r="Y41" s="17" t="n">
+      <c r="Y41" s="16" t="n">
         <f aca="false">AC17^2</f>
         <v>4.84</v>
       </c>
-      <c r="Z41" s="17" t="n">
+      <c r="Z41" s="16" t="n">
         <f aca="false">AD17^2</f>
         <v>10.24</v>
       </c>
-      <c r="AA41" s="21" t="n">
+      <c r="AA41" s="20" t="n">
         <f aca="false">AE17^2</f>
         <v>10.24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="16" t="n">
+      <c r="E42" s="15" t="n">
         <f aca="false">E18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="16" t="n">
         <f aca="false">F18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="G42" s="17" t="n">
+      <c r="G42" s="16" t="n">
         <f aca="false">G18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="H42" s="17" t="n">
+      <c r="H42" s="16" t="n">
         <f aca="false">H18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="I42" s="17" t="n">
+      <c r="I42" s="16" t="n">
         <f aca="false">I18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="J42" s="17" t="n">
+      <c r="J42" s="16" t="n">
         <f aca="false">J18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="K42" s="17" t="n">
+      <c r="K42" s="16" t="n">
         <f aca="false">K18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="L42" s="17" t="n">
+      <c r="L42" s="16" t="n">
         <f aca="false">L18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="M42" s="17" t="n">
+      <c r="M42" s="16" t="n">
         <f aca="false">M18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="N42" s="17" t="n">
+      <c r="N42" s="16" t="n">
         <f aca="false">N18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="O42" s="17" t="n">
+      <c r="O42" s="16" t="n">
         <f aca="false">O18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="P42" s="17" t="n">
+      <c r="P42" s="16" t="n">
         <f aca="false">P18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="Q42" s="17" t="n">
+      <c r="Q42" s="16" t="n">
         <f aca="false">Q18*$Z18</f>
         <v>3.2</v>
       </c>
-      <c r="R42" s="17" t="n">
+      <c r="R42" s="16" t="n">
         <f aca="false">R18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="S42" s="17" t="n">
+      <c r="S42" s="16" t="n">
         <f aca="false">S18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="T42" s="21" t="n">
+      <c r="T42" s="20" t="n">
         <f aca="false">T18*$Z18</f>
         <v>-3.2</v>
       </c>
-      <c r="W42" s="16" t="n">
+      <c r="W42" s="15" t="n">
         <f aca="false">AA18^2</f>
         <v>4.84</v>
       </c>
-      <c r="X42" s="17" t="n">
+      <c r="X42" s="16" t="n">
         <f aca="false">AB18^2</f>
         <v>14.44</v>
       </c>
-      <c r="Y42" s="17" t="n">
+      <c r="Y42" s="16" t="n">
         <f aca="false">AC18^2</f>
         <v>0.0400000000000001</v>
       </c>
-      <c r="Z42" s="17" t="n">
+      <c r="Z42" s="16" t="n">
         <f aca="false">AD18^2</f>
         <v>0.64</v>
       </c>
-      <c r="AA42" s="21" t="n">
+      <c r="AA42" s="20" t="n">
         <f aca="false">AE18^2</f>
         <v>4.84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="15" t="n">
         <f aca="false">E19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="16" t="n">
         <f aca="false">F19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="G43" s="17" t="n">
+      <c r="G43" s="16" t="n">
         <f aca="false">G19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="H43" s="17" t="n">
+      <c r="H43" s="16" t="n">
         <f aca="false">H19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="I43" s="17" t="n">
+      <c r="I43" s="16" t="n">
         <f aca="false">I19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="J43" s="17" t="n">
+      <c r="J43" s="16" t="n">
         <f aca="false">J19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="K43" s="17" t="n">
+      <c r="K43" s="16" t="n">
         <f aca="false">K19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="L43" s="17" t="n">
+      <c r="L43" s="16" t="n">
         <f aca="false">L19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="M43" s="17" t="n">
+      <c r="M43" s="16" t="n">
         <f aca="false">M19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="N43" s="17" t="n">
+      <c r="N43" s="16" t="n">
         <f aca="false">N19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="O43" s="17" t="n">
+      <c r="O43" s="16" t="n">
         <f aca="false">O19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="P43" s="17" t="n">
+      <c r="P43" s="16" t="n">
         <f aca="false">P19*$Z19</f>
         <v>5.8</v>
       </c>
-      <c r="Q43" s="17" t="n">
+      <c r="Q43" s="16" t="n">
         <f aca="false">Q19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="R43" s="17" t="n">
+      <c r="R43" s="16" t="n">
         <f aca="false">R19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="S43" s="17" t="n">
+      <c r="S43" s="16" t="n">
         <f aca="false">S19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="T43" s="21" t="n">
+      <c r="T43" s="20" t="n">
         <f aca="false">T19*$Z19</f>
         <v>-5.8</v>
       </c>
-      <c r="W43" s="16" t="n">
+      <c r="W43" s="15" t="n">
         <f aca="false">AA19^2</f>
         <v>14.44</v>
       </c>
-      <c r="X43" s="17" t="n">
+      <c r="X43" s="16" t="n">
         <f aca="false">AB19^2</f>
         <v>3.24</v>
       </c>
-      <c r="Y43" s="17" t="n">
+      <c r="Y43" s="16" t="n">
         <f aca="false">AC19^2</f>
         <v>1.44</v>
       </c>
-      <c r="Z43" s="17" t="n">
+      <c r="Z43" s="16" t="n">
         <f aca="false">AD19^2</f>
         <v>4.84</v>
       </c>
-      <c r="AA43" s="21" t="n">
+      <c r="AA43" s="20" t="n">
         <f aca="false">AE19^2</f>
         <v>4.84</v>
       </c>
-      <c r="AC43" s="37" t="s">
+      <c r="AC43" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AD43" s="37"/>
+      <c r="AD43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="22" t="n">
+      <c r="E44" s="21" t="n">
         <f aca="false">E20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="22" t="n">
         <f aca="false">F20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="G44" s="23" t="n">
+      <c r="G44" s="22" t="n">
         <f aca="false">G20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="H44" s="23" t="n">
+      <c r="H44" s="22" t="n">
         <f aca="false">H20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="I44" s="23" t="n">
+      <c r="I44" s="22" t="n">
         <f aca="false">I20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="J44" s="23" t="n">
+      <c r="J44" s="22" t="n">
         <f aca="false">J20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="K44" s="23" t="n">
+      <c r="K44" s="22" t="n">
         <f aca="false">K20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="L44" s="23" t="n">
+      <c r="L44" s="22" t="n">
         <f aca="false">L20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="M44" s="23" t="n">
+      <c r="M44" s="22" t="n">
         <f aca="false">M20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="N44" s="23" t="n">
+      <c r="N44" s="22" t="n">
         <f aca="false">N20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="O44" s="23" t="n">
+      <c r="O44" s="22" t="n">
         <f aca="false">O20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="P44" s="23" t="n">
+      <c r="P44" s="22" t="n">
         <f aca="false">P20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="Q44" s="23" t="n">
+      <c r="Q44" s="22" t="n">
         <f aca="false">Q20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="R44" s="23" t="n">
+      <c r="R44" s="22" t="n">
         <f aca="false">R20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="S44" s="23" t="n">
+      <c r="S44" s="22" t="n">
         <f aca="false">S20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="T44" s="27" t="n">
+      <c r="T44" s="26" t="n">
         <f aca="false">T20*$Z20</f>
         <v>3</v>
       </c>
-      <c r="W44" s="22" t="n">
+      <c r="W44" s="21" t="n">
         <f aca="false">AA20^2</f>
         <v>4</v>
       </c>
-      <c r="X44" s="23" t="n">
+      <c r="X44" s="22" t="n">
         <f aca="false">AB20^2</f>
         <v>1</v>
       </c>
-      <c r="Y44" s="23" t="n">
+      <c r="Y44" s="22" t="n">
         <f aca="false">AC20^2</f>
         <v>0</v>
       </c>
-      <c r="Z44" s="23" t="n">
+      <c r="Z44" s="22" t="n">
         <f aca="false">AD20^2</f>
         <v>36</v>
       </c>
-      <c r="AA44" s="27" t="n">
+      <c r="AA44" s="26" t="n">
         <f aca="false">AE20^2</f>
         <v>9</v>
       </c>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E45" s="9" t="n">
         <f aca="false">SUM(E29:E44)</f>
         <v>82.2</v>
       </c>
-      <c r="F45" s="39" t="n">
+      <c r="F45" s="38" t="n">
         <f aca="false">SUM(F29:F44)</f>
         <v>-20.6</v>
       </c>
-      <c r="G45" s="39" t="n">
+      <c r="G45" s="38" t="n">
         <f aca="false">SUM(G29:G44)</f>
         <v>9.4</v>
       </c>
-      <c r="H45" s="39" t="n">
+      <c r="H45" s="38" t="n">
         <f aca="false">SUM(H29:H44)</f>
         <v>-8.6</v>
       </c>
-      <c r="I45" s="39" t="n">
+      <c r="I45" s="38" t="n">
         <f aca="false">SUM(I29:I44)</f>
         <v>-16.2</v>
       </c>
-      <c r="J45" s="39" t="n">
+      <c r="J45" s="38" t="n">
         <f aca="false">SUM(J29:J44)</f>
         <v>0.200000000000003</v>
       </c>
-      <c r="K45" s="39" t="n">
+      <c r="K45" s="38" t="n">
         <f aca="false">SUM(K29:K44)</f>
         <v>2.2</v>
       </c>
-      <c r="L45" s="39" t="n">
+      <c r="L45" s="38" t="n">
         <f aca="false">SUM(L29:L44)</f>
         <v>-1.4</v>
       </c>
-      <c r="M45" s="39" t="n">
+      <c r="M45" s="38" t="n">
         <f aca="false">SUM(M29:M44)</f>
         <v>5</v>
       </c>
-      <c r="N45" s="39" t="n">
+      <c r="N45" s="38" t="n">
         <f aca="false">SUM(N29:N44)</f>
         <v>1.4</v>
       </c>
-      <c r="O45" s="39" t="n">
+      <c r="O45" s="38" t="n">
         <f aca="false">SUM(O29:O44)</f>
         <v>13</v>
       </c>
-      <c r="P45" s="39" t="n">
+      <c r="P45" s="38" t="n">
         <f aca="false">SUM(P29:P44)</f>
         <v>0.600000000000001</v>
       </c>
-      <c r="Q45" s="39" t="n">
+      <c r="Q45" s="38" t="n">
         <f aca="false">SUM(Q29:Q44)</f>
         <v>-5.4</v>
       </c>
-      <c r="R45" s="39" t="n">
+      <c r="R45" s="38" t="n">
         <f aca="false">SUM(R29:R44)</f>
         <v>-9</v>
       </c>
-      <c r="S45" s="39" t="n">
+      <c r="S45" s="38" t="n">
         <f aca="false">SUM(S29:S44)</f>
         <v>-12.6</v>
       </c>
-      <c r="T45" s="40" t="n">
+      <c r="T45" s="39" t="n">
         <f aca="false">SUM(T29:T44)</f>
         <v>7.8</v>
       </c>
-      <c r="W45" s="41" t="s">
+      <c r="W45" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="42" t="n">
+      <c r="X45" s="40"/>
+      <c r="Y45" s="41" t="n">
         <f aca="false">SUM(W29:AA44)</f>
         <v>707.6</v>
       </c>
-      <c r="AC45" s="43" t="n">
+      <c r="AC45" s="42" t="n">
         <f aca="false">SUM(E47:T47,Y45)</f>
         <v>3251</v>
       </c>
-      <c r="AD45" s="43"/>
+      <c r="AD45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="15" t="n">
         <f aca="false">E45/16</f>
         <v>5.1375</v>
       </c>
-      <c r="F46" s="44" t="n">
+      <c r="F46" s="43" t="n">
         <f aca="false">F45/16</f>
         <v>-1.2875</v>
       </c>
-      <c r="G46" s="44" t="n">
+      <c r="G46" s="43" t="n">
         <f aca="false">G45/16</f>
         <v>0.5875</v>
       </c>
-      <c r="H46" s="44" t="n">
+      <c r="H46" s="43" t="n">
         <f aca="false">H45/16</f>
         <v>-0.5375</v>
       </c>
-      <c r="I46" s="44" t="n">
+      <c r="I46" s="43" t="n">
         <f aca="false">I45/16</f>
         <v>-1.0125</v>
       </c>
-      <c r="J46" s="44" t="n">
+      <c r="J46" s="43" t="n">
         <f aca="false">J45/16</f>
         <v>0.0125000000000002</v>
       </c>
-      <c r="K46" s="44" t="n">
+      <c r="K46" s="43" t="n">
         <f aca="false">K45/16</f>
         <v>0.1375</v>
       </c>
-      <c r="L46" s="44" t="n">
+      <c r="L46" s="43" t="n">
         <f aca="false">L45/16</f>
         <v>-0.0874999999999999</v>
       </c>
-      <c r="M46" s="44" t="n">
+      <c r="M46" s="43" t="n">
         <f aca="false">M45/16</f>
         <v>0.3125</v>
       </c>
-      <c r="N46" s="44" t="n">
+      <c r="N46" s="43" t="n">
         <f aca="false">N45/16</f>
         <v>0.0875</v>
       </c>
-      <c r="O46" s="44" t="n">
+      <c r="O46" s="43" t="n">
         <f aca="false">O45/16</f>
         <v>0.8125</v>
       </c>
-      <c r="P46" s="44" t="n">
+      <c r="P46" s="43" t="n">
         <f aca="false">P45/16</f>
         <v>0.0375000000000001</v>
       </c>
-      <c r="Q46" s="44" t="n">
+      <c r="Q46" s="43" t="n">
         <f aca="false">Q45/16</f>
         <v>-0.3375</v>
       </c>
-      <c r="R46" s="44" t="n">
+      <c r="R46" s="43" t="n">
         <f aca="false">R45/16</f>
         <v>-0.5625</v>
       </c>
-      <c r="S46" s="44" t="n">
+      <c r="S46" s="43" t="n">
         <f aca="false">S45/16</f>
         <v>-0.7875</v>
       </c>
-      <c r="T46" s="45" t="n">
+      <c r="T46" s="44" t="n">
         <f aca="false">T45/16</f>
         <v>0.4875</v>
       </c>
-      <c r="V46" s="46"/>
-      <c r="W46" s="47" t="s">
+      <c r="V46" s="45"/>
+      <c r="W46" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X46" s="47"/>
-      <c r="Y46" s="48" t="n">
+      <c r="X46" s="46"/>
+      <c r="Y46" s="47" t="n">
         <f aca="false">(Y45/AC45)*100</f>
         <v>21.7656105813596</v>
       </c>
-      <c r="AC46" s="43"/>
-      <c r="AD46" s="43"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="16" t="n">
+      <c r="E47" s="15" t="n">
         <f aca="false">16*5*(E46^2)</f>
         <v>2111.5125</v>
       </c>
-      <c r="F47" s="44" t="n">
+      <c r="F47" s="43" t="n">
         <f aca="false">16*5*(F46^2)</f>
         <v>132.6125</v>
       </c>
-      <c r="G47" s="44" t="n">
+      <c r="G47" s="43" t="n">
         <f aca="false">16*5*(G46^2)</f>
         <v>27.6125</v>
       </c>
-      <c r="H47" s="44" t="n">
+      <c r="H47" s="43" t="n">
         <f aca="false">16*5*(H46^2)</f>
         <v>23.1125</v>
       </c>
-      <c r="I47" s="44" t="n">
+      <c r="I47" s="43" t="n">
         <f aca="false">16*5*(I46^2)</f>
         <v>82.0125</v>
       </c>
-      <c r="J47" s="44" t="n">
+      <c r="J47" s="43" t="n">
         <f aca="false">16*5*(J46^2)</f>
         <v>0.0125000000000004</v>
       </c>
-      <c r="K47" s="44" t="n">
+      <c r="K47" s="43" t="n">
         <f aca="false">16*5*(K46^2)</f>
         <v>1.5125</v>
       </c>
-      <c r="L47" s="44" t="n">
+      <c r="L47" s="43" t="n">
         <f aca="false">16*5*(L46^2)</f>
         <v>0.612499999999999</v>
       </c>
-      <c r="M47" s="44" t="n">
+      <c r="M47" s="43" t="n">
         <f aca="false">16*5*(M46^2)</f>
         <v>7.8125</v>
       </c>
-      <c r="N47" s="44" t="n">
+      <c r="N47" s="43" t="n">
         <f aca="false">16*5*(N46^2)</f>
         <v>0.6125</v>
       </c>
-      <c r="O47" s="44" t="n">
+      <c r="O47" s="43" t="n">
         <f aca="false">16*5*(O46^2)</f>
         <v>52.8125</v>
       </c>
-      <c r="P47" s="44" t="n">
+      <c r="P47" s="43" t="n">
         <f aca="false">16*5*(P46^2)</f>
         <v>0.112500000000001</v>
       </c>
-      <c r="Q47" s="44" t="n">
+      <c r="Q47" s="43" t="n">
         <f aca="false">16*5*(Q46^2)</f>
         <v>9.1125</v>
       </c>
-      <c r="R47" s="44" t="n">
+      <c r="R47" s="43" t="n">
         <f aca="false">16*5*(R46^2)</f>
         <v>25.3125</v>
       </c>
-      <c r="S47" s="44" t="n">
+      <c r="S47" s="43" t="n">
         <f aca="false">16*5*(S46^2)</f>
         <v>49.6125</v>
       </c>
-      <c r="T47" s="45" t="n">
+      <c r="T47" s="44" t="n">
         <f aca="false">16*5*(T46^2)</f>
         <v>19.0125</v>
       </c>
-      <c r="X47" s="46"/>
+      <c r="X47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="22" t="n">
+      <c r="E48" s="21" t="n">
         <f aca="false">(E47/$AC$45)*100</f>
         <v>64.9496308828053</v>
       </c>
-      <c r="F48" s="50" t="n">
+      <c r="F48" s="49" t="n">
         <f aca="false">(F47/$AC$45)*100</f>
         <v>4.07912949861581</v>
       </c>
-      <c r="G48" s="50" t="n">
+      <c r="G48" s="49" t="n">
         <f aca="false">(G47/$AC$45)*100</f>
         <v>0.849354044909258</v>
       </c>
-      <c r="H48" s="50" t="n">
+      <c r="H48" s="49" t="n">
         <f aca="false">(H47/$AC$45)*100</f>
         <v>0.710935096893264</v>
       </c>
-      <c r="I48" s="50" t="n">
+      <c r="I48" s="49" t="n">
         <f aca="false">(I47/$AC$45)*100</f>
         <v>2.52268532759151</v>
       </c>
-      <c r="J48" s="50" t="n">
+      <c r="J48" s="49" t="n">
         <f aca="false">(J47/$AC$45)*100</f>
         <v>0.000384497077822219</v>
       </c>
-      <c r="K48" s="50" t="n">
+      <c r="K48" s="49" t="n">
         <f aca="false">(K47/$AC$45)*100</f>
         <v>0.0465241464164872</v>
       </c>
-      <c r="L48" s="50" t="n">
+      <c r="L48" s="49" t="n">
         <f aca="false">(L47/$AC$45)*100</f>
         <v>0.0188403568132882</v>
       </c>
-      <c r="M48" s="50" t="n">
+      <c r="M48" s="49" t="n">
         <f aca="false">(M47/$AC$45)*100</f>
         <v>0.24031067363888</v>
       </c>
-      <c r="N48" s="50" t="n">
+      <c r="N48" s="49" t="n">
         <f aca="false">(N47/$AC$45)*100</f>
         <v>0.0188403568132882</v>
       </c>
-      <c r="O48" s="50" t="n">
+      <c r="O48" s="49" t="n">
         <f aca="false">(O47/$AC$45)*100</f>
         <v>1.62450015379883</v>
       </c>
-      <c r="P48" s="50" t="n">
+      <c r="P48" s="49" t="n">
         <f aca="false">(P47/$AC$45)*100</f>
         <v>0.00346047370039989</v>
       </c>
-      <c r="Q48" s="50" t="n">
+      <c r="Q48" s="49" t="n">
         <f aca="false">(Q47/$AC$45)*100</f>
         <v>0.28029836973239</v>
       </c>
-      <c r="R48" s="50" t="n">
+      <c r="R48" s="49" t="n">
         <f aca="false">(R47/$AC$45)*100</f>
         <v>0.778606582589972</v>
       </c>
-      <c r="S48" s="50" t="n">
+      <c r="S48" s="49" t="n">
         <f aca="false">(S47/$AC$45)*100</f>
         <v>1.52606890187635</v>
       </c>
-      <c r="T48" s="51" t="n">
+      <c r="T48" s="50" t="n">
         <f aca="false">(T47/$AC$45)*100</f>
         <v>0.584820055367579</v>
       </c>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="56" t="s">
+      <c r="H57" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="I57" s="57" t="s">
+      <c r="I57" s="56" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="59" t="n">
+      <c r="E58" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="58" t="n">
         <f aca="false">(E58-0.5)/$E$137</f>
         <v>0.00625</v>
       </c>
-      <c r="G58" s="59" t="n">
+      <c r="G58" s="58" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F58)</f>
         <v>-2.49770547441237</v>
       </c>
-      <c r="H58" s="59" t="n">
+      <c r="H58" s="58" t="n">
         <v>-7.8</v>
       </c>
-      <c r="I58" s="42" t="n">
+      <c r="I58" s="41" t="n">
         <f aca="false">AA5</f>
         <v>11.2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="15" t="n">
         <f aca="false">E58+1</f>
         <v>2</v>
       </c>
-      <c r="F59" s="17" t="n">
+      <c r="F59" s="16" t="n">
         <f aca="false">(E59-0.5)/$E$137</f>
         <v>0.01875</v>
       </c>
-      <c r="G59" s="17" t="n">
+      <c r="G59" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F59)</f>
         <v>-2.08027845252527</v>
       </c>
-      <c r="H59" s="17" t="n">
+      <c r="H59" s="16" t="n">
         <v>-6.8</v>
       </c>
-      <c r="I59" s="21" t="n">
+      <c r="I59" s="20" t="n">
         <f aca="false">AA6</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="16" t="n">
+      <c r="E60" s="15" t="n">
         <f aca="false">E59+1</f>
         <v>3</v>
       </c>
-      <c r="F60" s="17" t="n">
+      <c r="F60" s="16" t="n">
         <f aca="false">(E60-0.5)/$E$137</f>
         <v>0.03125</v>
       </c>
-      <c r="G60" s="17" t="n">
+      <c r="G60" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F60)</f>
         <v>-1.86273186742165</v>
       </c>
-      <c r="H60" s="17" t="n">
+      <c r="H60" s="16" t="n">
         <v>-6.8</v>
       </c>
-      <c r="I60" s="21" t="n">
+      <c r="I60" s="20" t="n">
         <f aca="false">AA7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="16" t="n">
+      <c r="E61" s="15" t="n">
         <f aca="false">E60+1</f>
         <v>4</v>
       </c>
-      <c r="F61" s="17" t="n">
+      <c r="F61" s="16" t="n">
         <f aca="false">(E61-0.5)/$E$137</f>
         <v>0.04375</v>
       </c>
-      <c r="G61" s="17" t="n">
+      <c r="G61" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F61)</f>
         <v>-1.7087352578229</v>
       </c>
-      <c r="H61" s="17" t="n">
+      <c r="H61" s="16" t="n">
         <v>-6.2</v>
       </c>
-      <c r="I61" s="21" t="n">
+      <c r="I61" s="20" t="n">
         <f aca="false">AA8</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="16" t="n">
+      <c r="E62" s="15" t="n">
         <f aca="false">E61+1</f>
         <v>5</v>
       </c>
-      <c r="F62" s="17" t="n">
+      <c r="F62" s="16" t="n">
         <f aca="false">(E62-0.5)/$E$137</f>
         <v>0.05625</v>
       </c>
-      <c r="G62" s="17" t="n">
+      <c r="G62" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F62)</f>
         <v>-1.58705583229031</v>
       </c>
-      <c r="H62" s="17" t="n">
+      <c r="H62" s="16" t="n">
         <v>-4.8</v>
       </c>
-      <c r="I62" s="21" t="n">
+      <c r="I62" s="20" t="n">
         <f aca="false">AA9</f>
         <v>-1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="16" t="n">
+      <c r="E63" s="15" t="n">
         <f aca="false">E62+1</f>
         <v>6</v>
       </c>
-      <c r="F63" s="17" t="n">
+      <c r="F63" s="16" t="n">
         <f aca="false">(E63-0.5)/$E$137</f>
         <v>0.06875</v>
       </c>
-      <c r="G63" s="17" t="n">
+      <c r="G63" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F63)</f>
         <v>-1.48516545690268</v>
       </c>
-      <c r="H63" s="17" t="n">
+      <c r="H63" s="16" t="n">
         <v>-3.8</v>
       </c>
-      <c r="I63" s="21" t="n">
+      <c r="I63" s="20" t="n">
         <f aca="false">AA10</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="16" t="n">
+      <c r="E64" s="15" t="n">
         <f aca="false">E63+1</f>
         <v>7</v>
       </c>
-      <c r="F64" s="17" t="n">
+      <c r="F64" s="16" t="n">
         <f aca="false">(E64-0.5)/$E$137</f>
         <v>0.08125</v>
       </c>
-      <c r="G64" s="17" t="n">
+      <c r="G64" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F64)</f>
         <v>-1.39671264539045</v>
       </c>
-      <c r="H64" s="17" t="n">
+      <c r="H64" s="16" t="n">
         <v>-3.8</v>
       </c>
-      <c r="I64" s="21" t="n">
+      <c r="I64" s="20" t="n">
         <f aca="false">AA11</f>
         <v>-1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="16" t="n">
+      <c r="E65" s="15" t="n">
         <f aca="false">E64+1</f>
         <v>8</v>
       </c>
-      <c r="F65" s="17" t="n">
+      <c r="F65" s="16" t="n">
         <f aca="false">(E65-0.5)/$E$137</f>
         <v>0.09375</v>
       </c>
-      <c r="G65" s="17" t="n">
+      <c r="G65" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F65)</f>
         <v>-1.31801089730354</v>
       </c>
-      <c r="H65" s="17" t="n">
+      <c r="H65" s="16" t="n">
         <v>-3.2</v>
       </c>
-      <c r="I65" s="21" t="n">
+      <c r="I65" s="20" t="n">
         <f aca="false">AA12</f>
         <v>-3.2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="16" t="n">
+      <c r="E66" s="15" t="n">
         <f aca="false">E65+1</f>
         <v>9</v>
       </c>
-      <c r="F66" s="17" t="n">
+      <c r="F66" s="16" t="n">
         <f aca="false">(E66-0.5)/$E$137</f>
         <v>0.10625</v>
       </c>
-      <c r="G66" s="17" t="n">
+      <c r="G66" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F66)</f>
         <v>-1.24672049837958</v>
       </c>
-      <c r="H66" s="17" t="n">
+      <c r="H66" s="16" t="n">
         <v>-3</v>
       </c>
-      <c r="I66" s="21" t="n">
+      <c r="I66" s="20" t="n">
         <f aca="false">AA13</f>
         <v>-0.4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="16" t="n">
+      <c r="E67" s="15" t="n">
         <f aca="false">E66+1</f>
         <v>10</v>
       </c>
-      <c r="F67" s="17" t="n">
+      <c r="F67" s="16" t="n">
         <f aca="false">(E67-0.5)/$E$137</f>
         <v>0.11875</v>
       </c>
-      <c r="G67" s="17" t="n">
+      <c r="G67" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F67)</f>
         <v>-1.18125862097704</v>
       </c>
-      <c r="H67" s="17" t="n">
+      <c r="H67" s="16" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I67" s="21" t="n">
+      <c r="I67" s="20" t="n">
         <f aca="false">AA14</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="16" t="n">
+      <c r="E68" s="15" t="n">
         <f aca="false">E67+1</f>
         <v>11</v>
       </c>
-      <c r="F68" s="17" t="n">
+      <c r="F68" s="16" t="n">
         <f aca="false">(E68-0.5)/$E$137</f>
         <v>0.13125</v>
       </c>
-      <c r="G68" s="17" t="n">
+      <c r="G68" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F68)</f>
         <v>-1.1205017670747</v>
       </c>
-      <c r="H68" s="17" t="n">
+      <c r="H68" s="16" t="n">
         <v>-2.2</v>
       </c>
-      <c r="I68" s="21" t="n">
+      <c r="I68" s="20" t="n">
         <f aca="false">AA15</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="16" t="n">
+      <c r="E69" s="15" t="n">
         <f aca="false">E68+1</f>
         <v>12</v>
       </c>
-      <c r="F69" s="17" t="n">
+      <c r="F69" s="16" t="n">
         <f aca="false">(E69-0.5)/$E$137</f>
         <v>0.14375</v>
       </c>
-      <c r="G69" s="17" t="n">
+      <c r="G69" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F69)</f>
         <v>-1.06362193833772</v>
       </c>
-      <c r="H69" s="17" t="n">
+      <c r="H69" s="16" t="n">
         <v>-2.2</v>
       </c>
-      <c r="I69" s="21" t="n">
+      <c r="I69" s="20" t="n">
         <f aca="false">AA16</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="16" t="n">
+      <c r="E70" s="15" t="n">
         <f aca="false">E69+1</f>
         <v>13</v>
       </c>
-      <c r="F70" s="17" t="n">
+      <c r="F70" s="16" t="n">
         <f aca="false">(E70-0.5)/$E$137</f>
         <v>0.15625</v>
       </c>
-      <c r="G70" s="17" t="n">
+      <c r="G70" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F70)</f>
         <v>-1.00999016924958</v>
       </c>
-      <c r="H70" s="17" t="n">
+      <c r="H70" s="16" t="n">
         <v>-2.2</v>
       </c>
-      <c r="I70" s="21" t="n">
+      <c r="I70" s="20" t="n">
         <f aca="false">AA17</f>
         <v>-3.8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="16" t="n">
+      <c r="E71" s="15" t="n">
         <f aca="false">E70+1</f>
         <v>14</v>
       </c>
-      <c r="F71" s="17" t="n">
+      <c r="F71" s="16" t="n">
         <f aca="false">(E71-0.5)/$E$137</f>
         <v>0.16875</v>
       </c>
-      <c r="G71" s="17" t="n">
+      <c r="G71" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F71)</f>
         <v>-0.959116617227602</v>
       </c>
-      <c r="H71" s="17" t="n">
+      <c r="H71" s="16" t="n">
         <v>-2.2</v>
       </c>
-      <c r="I71" s="21" t="n">
+      <c r="I71" s="20" t="n">
         <f aca="false">AA18</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="16" t="n">
+      <c r="E72" s="15" t="n">
         <f aca="false">E71+1</f>
         <v>15</v>
       </c>
-      <c r="F72" s="17" t="n">
+      <c r="F72" s="16" t="n">
         <f aca="false">(E72-0.5)/$E$137</f>
         <v>0.18125</v>
       </c>
-      <c r="G72" s="17" t="n">
+      <c r="G72" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F72)</f>
         <v>-0.91061170687247</v>
       </c>
-      <c r="H72" s="17" t="n">
+      <c r="H72" s="16" t="n">
         <v>-2</v>
       </c>
-      <c r="I72" s="21" t="n">
+      <c r="I72" s="20" t="n">
         <f aca="false">AA19</f>
         <v>-3.8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="16" t="n">
+      <c r="E73" s="15" t="n">
         <f aca="false">E72+1</f>
         <v>16</v>
       </c>
-      <c r="F73" s="17" t="n">
+      <c r="F73" s="16" t="n">
         <f aca="false">(E73-0.5)/$E$137</f>
         <v>0.19375</v>
       </c>
-      <c r="G73" s="17" t="n">
+      <c r="G73" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F73)</f>
         <v>-0.864160004318308</v>
       </c>
-      <c r="H73" s="17" t="n">
+      <c r="H73" s="16" t="n">
         <v>-1.8</v>
       </c>
-      <c r="I73" s="21" t="n">
+      <c r="I73" s="20" t="n">
         <f aca="false">AA20</f>
         <v>-2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="16" t="n">
+      <c r="E74" s="15" t="n">
         <f aca="false">E73+1</f>
         <v>17</v>
       </c>
-      <c r="F74" s="17" t="n">
+      <c r="F74" s="16" t="n">
         <f aca="false">(E74-0.5)/$E$137</f>
         <v>0.20625</v>
       </c>
-      <c r="G74" s="17" t="n">
+      <c r="G74" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F74)</f>
         <v>-0.819502107568254</v>
       </c>
-      <c r="H74" s="17" t="n">
+      <c r="H74" s="16" t="n">
         <v>-1.8</v>
       </c>
-      <c r="I74" s="21" t="n">
+      <c r="I74" s="20" t="n">
         <f aca="false">AB5</f>
         <v>10.2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="16" t="n">
+      <c r="E75" s="15" t="n">
         <f aca="false">E74+1</f>
         <v>18</v>
       </c>
-      <c r="F75" s="17" t="n">
+      <c r="F75" s="16" t="n">
         <f aca="false">(E75-0.5)/$E$137</f>
         <v>0.21875</v>
       </c>
-      <c r="G75" s="17" t="n">
+      <c r="G75" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F75)</f>
         <v>-0.776421761147928</v>
       </c>
-      <c r="H75" s="17" t="n">
+      <c r="H75" s="16" t="n">
         <v>-1.8</v>
       </c>
-      <c r="I75" s="21" t="n">
+      <c r="I75" s="20" t="n">
         <f aca="false">AB6</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="16" t="n">
+      <c r="E76" s="15" t="n">
         <f aca="false">E75+1</f>
         <v>19</v>
       </c>
-      <c r="F76" s="17" t="n">
+      <c r="F76" s="16" t="n">
         <f aca="false">(E76-0.5)/$E$137</f>
         <v>0.23125</v>
       </c>
-      <c r="G76" s="17" t="n">
+      <c r="G76" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F76)</f>
         <v>-0.734736477807254</v>
       </c>
-      <c r="H76" s="17" t="n">
+      <c r="H76" s="16" t="n">
         <v>-1.8</v>
       </c>
-      <c r="I76" s="21" t="n">
+      <c r="I76" s="20" t="n">
         <f aca="false">AB7</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="16" t="n">
+      <c r="E77" s="15" t="n">
         <f aca="false">E76+1</f>
         <v>20</v>
       </c>
-      <c r="F77" s="17" t="n">
+      <c r="F77" s="16" t="n">
         <f aca="false">(E77-0.5)/$E$137</f>
         <v>0.24375</v>
       </c>
-      <c r="G77" s="17" t="n">
+      <c r="G77" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F77)</f>
         <v>-0.694290575703083</v>
       </c>
-      <c r="H77" s="17" t="n">
+      <c r="H77" s="16" t="n">
         <v>-1.8</v>
       </c>
-      <c r="I77" s="21" t="n">
+      <c r="I77" s="20" t="n">
         <f aca="false">AB8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="16" t="n">
+      <c r="E78" s="15" t="n">
         <f aca="false">E77+1</f>
         <v>21</v>
       </c>
-      <c r="F78" s="17" t="n">
+      <c r="F78" s="16" t="n">
         <f aca="false">(E78-0.5)/$E$137</f>
         <v>0.25625</v>
       </c>
-      <c r="G78" s="17" t="n">
+      <c r="G78" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F78)</f>
         <v>-0.654949917100686</v>
       </c>
-      <c r="H78" s="17" t="n">
+      <c r="H78" s="16" t="n">
         <v>-1.6</v>
       </c>
-      <c r="I78" s="21" t="n">
+      <c r="I78" s="20" t="n">
         <f aca="false">AB9</f>
         <v>-1</v>
       </c>
-      <c r="M78" s="60" t="s">
+      <c r="M78" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="N78" s="60"/>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="60"/>
-      <c r="T78" s="60"/>
-      <c r="U78" s="60"/>
-      <c r="V78" s="60"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="59"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="59"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="59"/>
+      <c r="U78" s="59"/>
+      <c r="V78" s="59"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="16" t="n">
+      <c r="E79" s="15" t="n">
         <f aca="false">E78+1</f>
         <v>22</v>
       </c>
-      <c r="F79" s="17" t="n">
+      <c r="F79" s="16" t="n">
         <f aca="false">(E79-0.5)/$E$137</f>
         <v>0.26875</v>
       </c>
-      <c r="G79" s="17" t="n">
+      <c r="G79" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F79)</f>
         <v>-0.61659786971703</v>
       </c>
-      <c r="H79" s="17" t="n">
+      <c r="H79" s="16" t="n">
         <v>-1.4</v>
       </c>
-      <c r="I79" s="21" t="n">
+      <c r="I79" s="20" t="n">
         <f aca="false">AB10</f>
         <v>-1.8</v>
       </c>
-      <c r="M79" s="61" t="s">
+      <c r="M79" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="61"/>
-      <c r="Q79" s="61"/>
-      <c r="R79" s="61"/>
-      <c r="S79" s="61"/>
-      <c r="T79" s="61"/>
-      <c r="U79" s="61"/>
-      <c r="V79" s="61"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="60"/>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="60"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="60"/>
+      <c r="T79" s="60"/>
+      <c r="U79" s="60"/>
+      <c r="V79" s="60"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="16" t="n">
+      <c r="E80" s="15" t="n">
         <f aca="false">E79+1</f>
         <v>23</v>
       </c>
-      <c r="F80" s="17" t="n">
+      <c r="F80" s="16" t="n">
         <f aca="false">(E80-0.5)/$E$137</f>
         <v>0.28125</v>
       </c>
-      <c r="G80" s="17" t="n">
+      <c r="G80" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F80)</f>
         <v>-0.579132162255556</v>
       </c>
-      <c r="H80" s="17" t="n">
+      <c r="H80" s="16" t="n">
         <v>-1.2</v>
       </c>
-      <c r="I80" s="21" t="n">
+      <c r="I80" s="20" t="n">
         <f aca="false">AB11</f>
         <v>0</v>
       </c>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="61"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="61"/>
-      <c r="S80" s="61"/>
-      <c r="T80" s="61"/>
-      <c r="U80" s="61"/>
-      <c r="V80" s="61"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="60"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="16" t="n">
+      <c r="E81" s="15" t="n">
         <f aca="false">E80+1</f>
         <v>24</v>
       </c>
-      <c r="F81" s="17" t="n">
+      <c r="F81" s="16" t="n">
         <f aca="false">(E81-0.5)/$E$137</f>
         <v>0.29375</v>
       </c>
-      <c r="G81" s="17" t="n">
+      <c r="G81" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F81)</f>
         <v>-0.542462404312549</v>
       </c>
-      <c r="H81" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I81" s="21" t="n">
+      <c r="H81" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="20" t="n">
         <f aca="false">AB12</f>
         <v>-0.2</v>
       </c>
-      <c r="M81" s="62" t="s">
+      <c r="M81" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="N81" s="62"/>
-      <c r="O81" s="62"/>
-      <c r="P81" s="62"/>
-      <c r="Q81" s="62"/>
-      <c r="R81" s="62"/>
-      <c r="S81" s="62"/>
-      <c r="T81" s="62"/>
-      <c r="U81" s="62"/>
-      <c r="V81" s="62"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="16" t="n">
+      <c r="E82" s="15" t="n">
         <f aca="false">E81+1</f>
         <v>25</v>
       </c>
-      <c r="F82" s="17" t="n">
+      <c r="F82" s="16" t="n">
         <f aca="false">(E82-0.5)/$E$137</f>
         <v>0.30625</v>
       </c>
-      <c r="G82" s="17" t="n">
+      <c r="G82" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F82)</f>
         <v>-0.506508106929111</v>
       </c>
-      <c r="H82" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I82" s="21" t="n">
+      <c r="H82" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="20" t="n">
         <f aca="false">AB13</f>
         <v>-1.4</v>
       </c>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="62"/>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="62"/>
-      <c r="S82" s="62"/>
-      <c r="T82" s="62"/>
-      <c r="U82" s="62"/>
-      <c r="V82" s="62"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="16" t="n">
+      <c r="E83" s="15" t="n">
         <f aca="false">E82+1</f>
         <v>26</v>
       </c>
-      <c r="F83" s="17" t="n">
+      <c r="F83" s="16" t="n">
         <f aca="false">(E83-0.5)/$E$137</f>
         <v>0.31875</v>
       </c>
-      <c r="G83" s="17" t="n">
+      <c r="G83" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F83)</f>
         <v>-0.471197085229966</v>
       </c>
-      <c r="H83" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I83" s="21" t="n">
+      <c r="H83" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="20" t="n">
         <f aca="false">AB14</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="16" t="n">
+      <c r="E84" s="15" t="n">
         <f aca="false">E83+1</f>
         <v>27</v>
       </c>
-      <c r="F84" s="17" t="n">
+      <c r="F84" s="16" t="n">
         <f aca="false">(E84-0.5)/$E$137</f>
         <v>0.33125</v>
       </c>
-      <c r="G84" s="17" t="n">
+      <c r="G84" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F84)</f>
         <v>-0.436464156008116</v>
       </c>
-      <c r="H84" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I84" s="21" t="n">
+      <c r="H84" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I84" s="20" t="n">
         <f aca="false">AB15</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="16" t="n">
+      <c r="E85" s="15" t="n">
         <f aca="false">E84+1</f>
         <v>28</v>
       </c>
-      <c r="F85" s="17" t="n">
+      <c r="F85" s="16" t="n">
         <f aca="false">(E85-0.5)/$E$137</f>
         <v>0.34375</v>
       </c>
-      <c r="G85" s="17" t="n">
+      <c r="G85" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F85)</f>
         <v>-0.402250065321725</v>
       </c>
-      <c r="H85" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I85" s="21" t="n">
+      <c r="H85" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="20" t="n">
         <f aca="false">AB16</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="16" t="n">
+      <c r="E86" s="15" t="n">
         <f aca="false">E85+1</f>
         <v>29</v>
       </c>
-      <c r="F86" s="17" t="n">
+      <c r="F86" s="16" t="n">
         <f aca="false">(E86-0.5)/$E$137</f>
         <v>0.35625</v>
       </c>
-      <c r="G86" s="17" t="n">
+      <c r="G86" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F86)</f>
         <v>-0.368500597097157</v>
       </c>
-      <c r="H86" s="17" t="n">
+      <c r="H86" s="16" t="n">
         <v>-0.8</v>
       </c>
-      <c r="I86" s="21" t="n">
+      <c r="I86" s="20" t="n">
         <f aca="false">AB17</f>
         <v>-4.8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="16" t="n">
+      <c r="E87" s="15" t="n">
         <f aca="false">E86+1</f>
         <v>30</v>
       </c>
-      <c r="F87" s="17" t="n">
+      <c r="F87" s="16" t="n">
         <f aca="false">(E87-0.5)/$E$137</f>
         <v>0.36875</v>
       </c>
-      <c r="G87" s="17" t="n">
+      <c r="G87" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F87)</f>
         <v>-0.335165825308025</v>
       </c>
-      <c r="H87" s="17" t="n">
+      <c r="H87" s="16" t="n">
         <v>-0.8</v>
       </c>
-      <c r="I87" s="21" t="n">
+      <c r="I87" s="20" t="n">
         <f aca="false">AB18</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="16" t="n">
+      <c r="E88" s="15" t="n">
         <f aca="false">E87+1</f>
         <v>31</v>
       </c>
-      <c r="F88" s="17" t="n">
+      <c r="F88" s="16" t="n">
         <f aca="false">(E88-0.5)/$E$137</f>
         <v>0.38125</v>
       </c>
-      <c r="G88" s="17" t="n">
+      <c r="G88" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F88)</f>
         <v>-0.302199480814762</v>
       </c>
-      <c r="H88" s="17" t="n">
+      <c r="H88" s="16" t="n">
         <v>-0.8</v>
       </c>
-      <c r="I88" s="21" t="n">
+      <c r="I88" s="20" t="n">
         <f aca="false">AB19</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="16" t="n">
+      <c r="E89" s="15" t="n">
         <f aca="false">E88+1</f>
         <v>32</v>
       </c>
-      <c r="F89" s="17" t="n">
+      <c r="F89" s="16" t="n">
         <f aca="false">(E89-0.5)/$E$137</f>
         <v>0.39375</v>
       </c>
-      <c r="G89" s="17" t="n">
+      <c r="G89" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F89)</f>
         <v>-0.269558410280158</v>
       </c>
-      <c r="H89" s="17" t="n">
+      <c r="H89" s="16" t="n">
         <v>-0.6</v>
       </c>
-      <c r="I89" s="21" t="n">
+      <c r="I89" s="20" t="n">
         <f aca="false">AB20</f>
         <v>-1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="16" t="n">
+      <c r="E90" s="15" t="n">
         <f aca="false">E89+1</f>
         <v>33</v>
       </c>
-      <c r="F90" s="17" t="n">
+      <c r="F90" s="16" t="n">
         <f aca="false">(E90-0.5)/$E$137</f>
         <v>0.40625</v>
       </c>
-      <c r="G90" s="17" t="n">
+      <c r="G90" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F90)</f>
         <v>-0.237202109328788</v>
       </c>
-      <c r="H90" s="17" t="n">
+      <c r="H90" s="16" t="n">
         <v>-0.6</v>
       </c>
-      <c r="I90" s="21" t="n">
+      <c r="I90" s="20" t="n">
         <f aca="false">AC5</f>
         <v>-7.8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="16" t="n">
+      <c r="E91" s="15" t="n">
         <f aca="false">E90+1</f>
         <v>34</v>
       </c>
-      <c r="F91" s="17" t="n">
+      <c r="F91" s="16" t="n">
         <f aca="false">(E91-0.5)/$E$137</f>
         <v>0.41875</v>
       </c>
-      <c r="G91" s="17" t="n">
+      <c r="G91" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F91)</f>
         <v>-0.205092315715208</v>
       </c>
-      <c r="H91" s="17" t="n">
+      <c r="H91" s="16" t="n">
         <v>-0.6</v>
       </c>
-      <c r="I91" s="21" t="n">
+      <c r="I91" s="20" t="n">
         <f aca="false">AC6</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="16" t="n">
+      <c r="E92" s="15" t="n">
         <f aca="false">E91+1</f>
         <v>35</v>
       </c>
-      <c r="F92" s="17" t="n">
+      <c r="F92" s="16" t="n">
         <f aca="false">(E92-0.5)/$E$137</f>
         <v>0.43125</v>
       </c>
-      <c r="G92" s="17" t="n">
+      <c r="G92" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F92)</f>
         <v>-0.173192651006423</v>
       </c>
-      <c r="H92" s="17" t="n">
+      <c r="H92" s="16" t="n">
         <v>-0.4</v>
       </c>
-      <c r="I92" s="21" t="n">
+      <c r="I92" s="20" t="n">
         <f aca="false">AC7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="16" t="n">
+      <c r="E93" s="15" t="n">
         <f aca="false">E92+1</f>
         <v>36</v>
       </c>
-      <c r="F93" s="17" t="n">
+      <c r="F93" s="16" t="n">
         <f aca="false">(E93-0.5)/$E$137</f>
         <v>0.44375</v>
       </c>
-      <c r="G93" s="17" t="n">
+      <c r="G93" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F93)</f>
         <v>-0.141468301382159</v>
       </c>
-      <c r="H93" s="17" t="n">
+      <c r="H93" s="16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="I93" s="21" t="n">
+      <c r="I93" s="20" t="n">
         <f aca="false">AC8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="16" t="n">
+      <c r="E94" s="15" t="n">
         <f aca="false">E93+1</f>
         <v>37</v>
       </c>
-      <c r="F94" s="17" t="n">
+      <c r="F94" s="16" t="n">
         <f aca="false">(E94-0.5)/$E$137</f>
         <v>0.45625</v>
       </c>
-      <c r="G94" s="17" t="n">
+      <c r="G94" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F94)</f>
         <v>-0.109885729765991</v>
       </c>
-      <c r="H94" s="17" t="n">
+      <c r="H94" s="16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="I94" s="21" t="n">
+      <c r="I94" s="20" t="n">
         <f aca="false">AC9</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="16" t="n">
+      <c r="E95" s="15" t="n">
         <f aca="false">E94+1</f>
         <v>38</v>
       </c>
-      <c r="F95" s="17" t="n">
+      <c r="F95" s="16" t="n">
         <f aca="false">(E95-0.5)/$E$137</f>
         <v>0.46875</v>
       </c>
-      <c r="G95" s="17" t="n">
+      <c r="G95" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F95)</f>
         <v>-0.0784124127331122</v>
       </c>
-      <c r="H95" s="17" t="n">
+      <c r="H95" s="16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="I95" s="21" t="n">
+      <c r="I95" s="20" t="n">
         <f aca="false">AC10</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="16" t="n">
+      <c r="E96" s="15" t="n">
         <f aca="false">E95+1</f>
         <v>39</v>
       </c>
-      <c r="F96" s="17" t="n">
+      <c r="F96" s="16" t="n">
         <f aca="false">(E96-0.5)/$E$137</f>
         <v>0.48125</v>
       </c>
-      <c r="G96" s="17" t="n">
+      <c r="G96" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F96)</f>
         <v>-0.0470165965778142</v>
       </c>
-      <c r="H96" s="17" t="n">
+      <c r="H96" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="I96" s="21" t="n">
+      <c r="I96" s="20" t="n">
         <f aca="false">AC11</f>
         <v>-1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="16" t="n">
+      <c r="E97" s="15" t="n">
         <f aca="false">E96+1</f>
         <v>40</v>
       </c>
-      <c r="F97" s="17" t="n">
+      <c r="F97" s="16" t="n">
         <f aca="false">(E97-0.5)/$E$137</f>
         <v>0.49375</v>
       </c>
-      <c r="G97" s="17" t="n">
+      <c r="G97" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F97)</f>
         <v>-0.01566706762477</v>
       </c>
-      <c r="H97" s="17" t="n">
+      <c r="H97" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="I97" s="21" t="n">
+      <c r="I97" s="20" t="n">
         <f aca="false">AC12</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="16" t="n">
+      <c r="E98" s="15" t="n">
         <f aca="false">E97+1</f>
         <v>41</v>
       </c>
-      <c r="F98" s="17" t="n">
+      <c r="F98" s="16" t="n">
         <f aca="false">(E98-0.5)/$E$137</f>
         <v>0.50625</v>
       </c>
-      <c r="G98" s="17" t="n">
+      <c r="G98" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F98)</f>
         <v>0.01566706762477</v>
       </c>
-      <c r="H98" s="17" t="n">
+      <c r="H98" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="I98" s="21" t="n">
+      <c r="I98" s="20" t="n">
         <f aca="false">AC13</f>
         <v>-2.4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="16" t="n">
+      <c r="E99" s="15" t="n">
         <f aca="false">E98+1</f>
         <v>42</v>
       </c>
-      <c r="F99" s="17" t="n">
+      <c r="F99" s="16" t="n">
         <f aca="false">(E99-0.5)/$E$137</f>
         <v>0.51875</v>
       </c>
-      <c r="G99" s="17" t="n">
+      <c r="G99" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F99)</f>
         <v>0.0470165965778143</v>
       </c>
-      <c r="H99" s="17" t="n">
+      <c r="H99" s="16" t="n">
         <v>0.2</v>
       </c>
-      <c r="I99" s="21" t="n">
+      <c r="I99" s="20" t="n">
         <f aca="false">AC14</f>
         <v>-1.6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="16" t="n">
+      <c r="E100" s="15" t="n">
         <f aca="false">E99+1</f>
         <v>43</v>
       </c>
-      <c r="F100" s="17" t="n">
+      <c r="F100" s="16" t="n">
         <f aca="false">(E100-0.5)/$E$137</f>
         <v>0.53125</v>
       </c>
-      <c r="G100" s="17" t="n">
+      <c r="G100" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F100)</f>
         <v>0.0784124127331122</v>
       </c>
-      <c r="H100" s="17" t="n">
+      <c r="H100" s="16" t="n">
         <v>0.2</v>
       </c>
-      <c r="I100" s="21" t="n">
+      <c r="I100" s="20" t="n">
         <f aca="false">AC15</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="16" t="n">
+      <c r="E101" s="15" t="n">
         <f aca="false">E100+1</f>
         <v>44</v>
       </c>
-      <c r="F101" s="17" t="n">
+      <c r="F101" s="16" t="n">
         <f aca="false">(E101-0.5)/$E$137</f>
         <v>0.54375</v>
       </c>
-      <c r="G101" s="17" t="n">
+      <c r="G101" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F101)</f>
         <v>0.109885729765991</v>
       </c>
-      <c r="H101" s="17" t="n">
+      <c r="H101" s="16" t="n">
         <v>0.4</v>
       </c>
-      <c r="I101" s="21" t="n">
+      <c r="I101" s="20" t="n">
         <f aca="false">AC16</f>
         <v>-1.2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="16" t="n">
+      <c r="E102" s="15" t="n">
         <f aca="false">E101+1</f>
         <v>45</v>
       </c>
-      <c r="F102" s="17" t="n">
+      <c r="F102" s="16" t="n">
         <f aca="false">(E102-0.5)/$E$137</f>
         <v>0.55625</v>
       </c>
-      <c r="G102" s="17" t="n">
+      <c r="G102" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F102)</f>
         <v>0.141468301382159</v>
       </c>
-      <c r="H102" s="17" t="n">
+      <c r="H102" s="16" t="n">
         <v>0.4</v>
       </c>
-      <c r="I102" s="21" t="n">
+      <c r="I102" s="20" t="n">
         <f aca="false">AC17</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="16" t="n">
+      <c r="E103" s="15" t="n">
         <f aca="false">E102+1</f>
         <v>46</v>
       </c>
-      <c r="F103" s="17" t="n">
+      <c r="F103" s="16" t="n">
         <f aca="false">(E103-0.5)/$E$137</f>
         <v>0.56875</v>
       </c>
-      <c r="G103" s="17" t="n">
+      <c r="G103" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F103)</f>
         <v>0.173192651006423</v>
       </c>
-      <c r="H103" s="17" t="n">
+      <c r="H103" s="16" t="n">
         <v>0.4</v>
       </c>
-      <c r="I103" s="21" t="n">
+      <c r="I103" s="20" t="n">
         <f aca="false">AC18</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="16" t="n">
+      <c r="E104" s="15" t="n">
         <f aca="false">E103+1</f>
         <v>47</v>
       </c>
-      <c r="F104" s="17" t="n">
+      <c r="F104" s="16" t="n">
         <f aca="false">(E104-0.5)/$E$137</f>
         <v>0.58125</v>
       </c>
-      <c r="G104" s="17" t="n">
+      <c r="G104" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F104)</f>
         <v>0.205092315715209</v>
       </c>
-      <c r="H104" s="17" t="n">
+      <c r="H104" s="16" t="n">
         <v>0.4</v>
       </c>
-      <c r="I104" s="21" t="n">
+      <c r="I104" s="20" t="n">
         <f aca="false">AC19</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="16" t="n">
+      <c r="E105" s="15" t="n">
         <f aca="false">E104+1</f>
         <v>48</v>
       </c>
-      <c r="F105" s="17" t="n">
+      <c r="F105" s="16" t="n">
         <f aca="false">(E105-0.5)/$E$137</f>
         <v>0.59375</v>
       </c>
-      <c r="G105" s="17" t="n">
+      <c r="G105" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F105)</f>
         <v>0.237202109328788</v>
       </c>
-      <c r="H105" s="17" t="n">
+      <c r="H105" s="16" t="n">
         <v>0.4</v>
       </c>
-      <c r="I105" s="21" t="n">
+      <c r="I105" s="20" t="n">
         <f aca="false">AC20</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="16" t="n">
+      <c r="E106" s="15" t="n">
         <f aca="false">E105+1</f>
         <v>49</v>
       </c>
-      <c r="F106" s="17" t="n">
+      <c r="F106" s="16" t="n">
         <f aca="false">(E106-0.5)/$E$137</f>
         <v>0.60625</v>
       </c>
-      <c r="G106" s="17" t="n">
+      <c r="G106" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F106)</f>
         <v>0.269558410280158</v>
       </c>
-      <c r="H106" s="17" t="n">
+      <c r="H106" s="16" t="n">
         <v>0.8</v>
       </c>
-      <c r="I106" s="21" t="n">
+      <c r="I106" s="20" t="n">
         <f aca="false">AD5</f>
         <v>-6.8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="16" t="n">
+      <c r="E107" s="15" t="n">
         <f aca="false">E106+1</f>
         <v>50</v>
       </c>
-      <c r="F107" s="17" t="n">
+      <c r="F107" s="16" t="n">
         <f aca="false">(E107-0.5)/$E$137</f>
         <v>0.61875</v>
       </c>
-      <c r="G107" s="17" t="n">
+      <c r="G107" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F107)</f>
         <v>0.302199480814762</v>
       </c>
-      <c r="H107" s="17" t="n">
+      <c r="H107" s="16" t="n">
         <v>0.8</v>
       </c>
-      <c r="I107" s="21" t="n">
+      <c r="I107" s="20" t="n">
         <f aca="false">AD6</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="16" t="n">
+      <c r="E108" s="15" t="n">
         <f aca="false">E107+1</f>
         <v>51</v>
       </c>
-      <c r="F108" s="17" t="n">
+      <c r="F108" s="16" t="n">
         <f aca="false">(E108-0.5)/$E$137</f>
         <v>0.63125</v>
       </c>
-      <c r="G108" s="17" t="n">
+      <c r="G108" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F108)</f>
         <v>0.335165825308025</v>
       </c>
-      <c r="H108" s="17" t="n">
+      <c r="H108" s="16" t="n">
         <v>0.8</v>
       </c>
-      <c r="I108" s="21" t="n">
+      <c r="I108" s="20" t="n">
         <f aca="false">AD7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="16" t="n">
+      <c r="E109" s="15" t="n">
         <f aca="false">E108+1</f>
         <v>52</v>
       </c>
-      <c r="F109" s="17" t="n">
+      <c r="F109" s="16" t="n">
         <f aca="false">(E109-0.5)/$E$137</f>
         <v>0.64375</v>
       </c>
-      <c r="G109" s="17" t="n">
+      <c r="G109" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F109)</f>
         <v>0.368500597097157</v>
       </c>
-      <c r="H109" s="17" t="n">
+      <c r="H109" s="16" t="n">
         <v>0.8</v>
       </c>
-      <c r="I109" s="21" t="n">
+      <c r="I109" s="20" t="n">
         <f aca="false">AD8</f>
         <v>-6.2</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="16" t="n">
+      <c r="E110" s="15" t="n">
         <f aca="false">E109+1</f>
         <v>53</v>
       </c>
-      <c r="F110" s="17" t="n">
+      <c r="F110" s="16" t="n">
         <f aca="false">(E110-0.5)/$E$137</f>
         <v>0.65625</v>
       </c>
-      <c r="G110" s="17" t="n">
+      <c r="G110" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F110)</f>
         <v>0.402250065321725</v>
       </c>
-      <c r="H110" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="21" t="n">
+      <c r="H110" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="20" t="n">
         <f aca="false">AD9</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="16" t="n">
+      <c r="E111" s="15" t="n">
         <f aca="false">E110+1</f>
         <v>54</v>
       </c>
-      <c r="F111" s="17" t="n">
+      <c r="F111" s="16" t="n">
         <f aca="false">(E111-0.5)/$E$137</f>
         <v>0.66875</v>
       </c>
-      <c r="G111" s="17" t="n">
+      <c r="G111" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F111)</f>
         <v>0.436464156008116</v>
       </c>
-      <c r="H111" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="21" t="n">
+      <c r="H111" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" s="20" t="n">
         <f aca="false">AD10</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="16" t="n">
+      <c r="E112" s="15" t="n">
         <f aca="false">E111+1</f>
         <v>55</v>
       </c>
-      <c r="F112" s="17" t="n">
+      <c r="F112" s="16" t="n">
         <f aca="false">(E112-0.5)/$E$137</f>
         <v>0.68125</v>
       </c>
-      <c r="G112" s="17" t="n">
+      <c r="G112" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F112)</f>
         <v>0.471197085229966</v>
       </c>
-      <c r="H112" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" s="21" t="n">
+      <c r="H112" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" s="20" t="n">
         <f aca="false">AD11</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="16" t="n">
+      <c r="E113" s="15" t="n">
         <f aca="false">E112+1</f>
         <v>56</v>
       </c>
-      <c r="F113" s="17" t="n">
+      <c r="F113" s="16" t="n">
         <f aca="false">(E113-0.5)/$E$137</f>
         <v>0.69375</v>
       </c>
-      <c r="G113" s="17" t="n">
+      <c r="G113" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F113)</f>
         <v>0.506508106929111</v>
       </c>
-      <c r="H113" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" s="21" t="n">
+      <c r="H113" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" s="20" t="n">
         <f aca="false">AD12</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="16" t="n">
+      <c r="E114" s="15" t="n">
         <f aca="false">E113+1</f>
         <v>57</v>
       </c>
-      <c r="F114" s="17" t="n">
+      <c r="F114" s="16" t="n">
         <f aca="false">(E114-0.5)/$E$137</f>
         <v>0.70625</v>
       </c>
-      <c r="G114" s="17" t="n">
+      <c r="G114" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F114)</f>
         <v>0.54246240431255</v>
       </c>
-      <c r="H114" s="17" t="n">
+      <c r="H114" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="I114" s="21" t="n">
+      <c r="I114" s="20" t="n">
         <f aca="false">AD13</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="16" t="n">
+      <c r="E115" s="15" t="n">
         <f aca="false">E114+1</f>
         <v>58</v>
       </c>
-      <c r="F115" s="17" t="n">
+      <c r="F115" s="16" t="n">
         <f aca="false">(E115-0.5)/$E$137</f>
         <v>0.71875</v>
       </c>
-      <c r="G115" s="17" t="n">
+      <c r="G115" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F115)</f>
         <v>0.579132162255556</v>
       </c>
-      <c r="H115" s="17" t="n">
+      <c r="H115" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="I115" s="21" t="n">
+      <c r="I115" s="20" t="n">
         <f aca="false">AD14</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="16" t="n">
+      <c r="E116" s="15" t="n">
         <f aca="false">E115+1</f>
         <v>59</v>
       </c>
-      <c r="F116" s="17" t="n">
+      <c r="F116" s="16" t="n">
         <f aca="false">(E116-0.5)/$E$137</f>
         <v>0.73125</v>
       </c>
-      <c r="G116" s="17" t="n">
+      <c r="G116" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F116)</f>
         <v>0.61659786971703</v>
       </c>
-      <c r="H116" s="17" t="n">
+      <c r="H116" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="I116" s="21" t="n">
+      <c r="I116" s="20" t="n">
         <f aca="false">AD15</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="16" t="n">
+      <c r="E117" s="15" t="n">
         <f aca="false">E116+1</f>
         <v>60</v>
       </c>
-      <c r="F117" s="17" t="n">
+      <c r="F117" s="16" t="n">
         <f aca="false">(E117-0.5)/$E$137</f>
         <v>0.74375</v>
       </c>
-      <c r="G117" s="17" t="n">
+      <c r="G117" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F117)</f>
         <v>0.654949917100686</v>
       </c>
-      <c r="H117" s="17" t="n">
+      <c r="H117" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="I117" s="21" t="n">
+      <c r="I117" s="20" t="n">
         <f aca="false">AD16</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="16" t="n">
+      <c r="E118" s="15" t="n">
         <f aca="false">E117+1</f>
         <v>61</v>
       </c>
-      <c r="F118" s="17" t="n">
+      <c r="F118" s="16" t="n">
         <f aca="false">(E118-0.5)/$E$137</f>
         <v>0.75625</v>
       </c>
-      <c r="G118" s="17" t="n">
+      <c r="G118" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F118)</f>
         <v>0.694290575703083</v>
       </c>
-      <c r="H118" s="17" t="n">
+      <c r="H118" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="I118" s="21" t="n">
+      <c r="I118" s="20" t="n">
         <f aca="false">AD17</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="16" t="n">
+      <c r="E119" s="15" t="n">
         <f aca="false">E118+1</f>
         <v>62</v>
       </c>
-      <c r="F119" s="17" t="n">
+      <c r="F119" s="16" t="n">
         <f aca="false">(E119-0.5)/$E$137</f>
         <v>0.76875</v>
       </c>
-      <c r="G119" s="17" t="n">
+      <c r="G119" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F119)</f>
         <v>0.734736477807255</v>
       </c>
-      <c r="H119" s="17" t="n">
+      <c r="H119" s="16" t="n">
         <v>1.4</v>
       </c>
-      <c r="I119" s="21" t="n">
+      <c r="I119" s="20" t="n">
         <f aca="false">AD18</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="16" t="n">
+      <c r="E120" s="15" t="n">
         <f aca="false">E119+1</f>
         <v>63</v>
       </c>
-      <c r="F120" s="17" t="n">
+      <c r="F120" s="16" t="n">
         <f aca="false">(E120-0.5)/$E$137</f>
         <v>0.78125</v>
       </c>
-      <c r="G120" s="17" t="n">
+      <c r="G120" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F120)</f>
         <v>0.776421761147928</v>
       </c>
-      <c r="H120" s="17" t="n">
+      <c r="H120" s="16" t="n">
         <v>1.6</v>
       </c>
-      <c r="I120" s="21" t="n">
+      <c r="I120" s="20" t="n">
         <f aca="false">AD19</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="16" t="n">
+      <c r="E121" s="15" t="n">
         <f aca="false">E120+1</f>
         <v>64</v>
       </c>
-      <c r="F121" s="17" t="n">
+      <c r="F121" s="16" t="n">
         <f aca="false">(E121-0.5)/$E$137</f>
         <v>0.79375</v>
       </c>
-      <c r="G121" s="17" t="n">
+      <c r="G121" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F121)</f>
         <v>0.819502107568254</v>
       </c>
-      <c r="H121" s="17" t="n">
+      <c r="H121" s="16" t="n">
         <v>1.8</v>
       </c>
-      <c r="I121" s="21" t="n">
+      <c r="I121" s="20" t="n">
         <f aca="false">AD20</f>
         <v>6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="16" t="n">
+      <c r="E122" s="15" t="n">
         <f aca="false">E121+1</f>
         <v>65</v>
       </c>
-      <c r="F122" s="17" t="n">
+      <c r="F122" s="16" t="n">
         <f aca="false">(E122-0.5)/$E$137</f>
         <v>0.80625</v>
       </c>
-      <c r="G122" s="17" t="n">
+      <c r="G122" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F122)</f>
         <v>0.864160004318308</v>
       </c>
-      <c r="H122" s="17" t="n">
+      <c r="H122" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="I122" s="21" t="n">
+      <c r="I122" s="20" t="n">
         <f aca="false">AE5</f>
         <v>-6.8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="16" t="n">
+      <c r="E123" s="15" t="n">
         <f aca="false">E122+1</f>
         <v>66</v>
       </c>
-      <c r="F123" s="17" t="n">
+      <c r="F123" s="16" t="n">
         <f aca="false">(E123-0.5)/$E$137</f>
         <v>0.81875</v>
       </c>
-      <c r="G123" s="17" t="n">
+      <c r="G123" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F123)</f>
         <v>0.91061170687247</v>
       </c>
-      <c r="H123" s="17" t="n">
+      <c r="H123" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="I123" s="21" t="n">
+      <c r="I123" s="20" t="n">
         <f aca="false">AE6</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="16" t="n">
+      <c r="E124" s="15" t="n">
         <f aca="false">E123+1</f>
         <v>67</v>
       </c>
-      <c r="F124" s="17" t="n">
+      <c r="F124" s="16" t="n">
         <f aca="false">(E124-0.5)/$E$137</f>
         <v>0.83125</v>
       </c>
-      <c r="G124" s="17" t="n">
+      <c r="G124" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F124)</f>
         <v>0.959116617227602</v>
       </c>
-      <c r="H124" s="17" t="n">
+      <c r="H124" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="I124" s="21" t="n">
+      <c r="I124" s="20" t="n">
         <f aca="false">AE7</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="16" t="n">
+      <c r="E125" s="15" t="n">
         <f aca="false">E124+1</f>
         <v>68</v>
       </c>
-      <c r="F125" s="17" t="n">
+      <c r="F125" s="16" t="n">
         <f aca="false">(E125-0.5)/$E$137</f>
         <v>0.84375</v>
       </c>
-      <c r="G125" s="17" t="n">
+      <c r="G125" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F125)</f>
         <v>1.00999016924958</v>
       </c>
-      <c r="H125" s="17" t="n">
+      <c r="H125" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="I125" s="21" t="n">
+      <c r="I125" s="20" t="n">
         <f aca="false">AE8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="16" t="n">
+      <c r="E126" s="15" t="n">
         <f aca="false">E125+1</f>
         <v>69</v>
       </c>
-      <c r="F126" s="17" t="n">
+      <c r="F126" s="16" t="n">
         <f aca="false">(E126-0.5)/$E$137</f>
         <v>0.85625</v>
       </c>
-      <c r="G126" s="17" t="n">
+      <c r="G126" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F126)</f>
         <v>1.06362193833772</v>
       </c>
-      <c r="H126" s="17" t="n">
+      <c r="H126" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="I126" s="21" t="n">
+      <c r="I126" s="20" t="n">
         <f aca="false">AE9</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="16" t="n">
+      <c r="E127" s="15" t="n">
         <f aca="false">E126+1</f>
         <v>70</v>
       </c>
-      <c r="F127" s="17" t="n">
+      <c r="F127" s="16" t="n">
         <f aca="false">(E127-0.5)/$E$137</f>
         <v>0.86875</v>
       </c>
-      <c r="G127" s="17" t="n">
+      <c r="G127" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F127)</f>
         <v>1.1205017670747</v>
       </c>
-      <c r="H127" s="17" t="n">
+      <c r="H127" s="16" t="n">
         <v>2.6</v>
       </c>
-      <c r="I127" s="21" t="n">
+      <c r="I127" s="20" t="n">
         <f aca="false">AE10</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="16" t="n">
+      <c r="E128" s="15" t="n">
         <f aca="false">E127+1</f>
         <v>71</v>
       </c>
-      <c r="F128" s="17" t="n">
+      <c r="F128" s="16" t="n">
         <f aca="false">(E128-0.5)/$E$137</f>
         <v>0.88125</v>
       </c>
-      <c r="G128" s="17" t="n">
+      <c r="G128" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F128)</f>
         <v>1.18125862097704</v>
       </c>
-      <c r="H128" s="17" t="n">
+      <c r="H128" s="16" t="n">
         <v>2.8</v>
       </c>
-      <c r="I128" s="21" t="n">
+      <c r="I128" s="20" t="n">
         <f aca="false">AE11</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="16" t="n">
+      <c r="E129" s="15" t="n">
         <f aca="false">E128+1</f>
         <v>72</v>
       </c>
-      <c r="F129" s="17" t="n">
+      <c r="F129" s="16" t="n">
         <f aca="false">(E129-0.5)/$E$137</f>
         <v>0.89375</v>
       </c>
-      <c r="G129" s="17" t="n">
+      <c r="G129" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F129)</f>
         <v>1.24672049837958</v>
       </c>
-      <c r="H129" s="17" t="n">
+      <c r="H129" s="16" t="n">
         <v>2.8</v>
       </c>
-      <c r="I129" s="21" t="n">
+      <c r="I129" s="20" t="n">
         <f aca="false">AE12</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="16" t="n">
+      <c r="E130" s="15" t="n">
         <f aca="false">E129+1</f>
         <v>73</v>
       </c>
-      <c r="F130" s="17" t="n">
+      <c r="F130" s="16" t="n">
         <f aca="false">(E130-0.5)/$E$137</f>
         <v>0.90625</v>
       </c>
-      <c r="G130" s="17" t="n">
+      <c r="G130" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F130)</f>
         <v>1.31801089730354</v>
       </c>
-      <c r="H130" s="17" t="n">
+      <c r="H130" s="16" t="n">
         <v>2.8</v>
       </c>
-      <c r="I130" s="21" t="n">
+      <c r="I130" s="20" t="n">
         <f aca="false">AE13</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="16" t="n">
+      <c r="E131" s="15" t="n">
         <f aca="false">E130+1</f>
         <v>74</v>
       </c>
-      <c r="F131" s="17" t="n">
+      <c r="F131" s="16" t="n">
         <f aca="false">(E131-0.5)/$E$137</f>
         <v>0.91875</v>
       </c>
-      <c r="G131" s="17" t="n">
+      <c r="G131" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F131)</f>
         <v>1.39671264539045</v>
       </c>
-      <c r="H131" s="17" t="n">
+      <c r="H131" s="16" t="n">
         <v>2.8</v>
       </c>
-      <c r="I131" s="21" t="n">
+      <c r="I131" s="20" t="n">
         <f aca="false">AE14</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="16" t="n">
+      <c r="E132" s="15" t="n">
         <f aca="false">E131+1</f>
         <v>75</v>
       </c>
-      <c r="F132" s="17" t="n">
+      <c r="F132" s="16" t="n">
         <f aca="false">(E132-0.5)/$E$137</f>
         <v>0.93125</v>
       </c>
-      <c r="G132" s="17" t="n">
+      <c r="G132" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F132)</f>
         <v>1.48516545690268</v>
       </c>
-      <c r="H132" s="17" t="n">
+      <c r="H132" s="16" t="n">
         <v>3.2</v>
       </c>
-      <c r="I132" s="21" t="n">
+      <c r="I132" s="20" t="n">
         <f aca="false">AE15</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="16" t="n">
+      <c r="E133" s="15" t="n">
         <f aca="false">E132+1</f>
         <v>76</v>
       </c>
-      <c r="F133" s="17" t="n">
+      <c r="F133" s="16" t="n">
         <f aca="false">(E133-0.5)/$E$137</f>
         <v>0.94375</v>
       </c>
-      <c r="G133" s="17" t="n">
+      <c r="G133" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F133)</f>
         <v>1.58705583229031</v>
       </c>
-      <c r="H133" s="17" t="n">
+      <c r="H133" s="16" t="n">
         <v>3.2</v>
       </c>
-      <c r="I133" s="21" t="n">
+      <c r="I133" s="20" t="n">
         <f aca="false">AE16</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="16" t="n">
+      <c r="E134" s="15" t="n">
         <f aca="false">E133+1</f>
         <v>77</v>
       </c>
-      <c r="F134" s="17" t="n">
+      <c r="F134" s="16" t="n">
         <f aca="false">(E134-0.5)/$E$137</f>
         <v>0.95625</v>
       </c>
-      <c r="G134" s="17" t="n">
+      <c r="G134" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F134)</f>
         <v>1.7087352578229</v>
       </c>
-      <c r="H134" s="17" t="n">
+      <c r="H134" s="16" t="n">
         <v>3.8</v>
       </c>
-      <c r="I134" s="21" t="n">
+      <c r="I134" s="20" t="n">
         <f aca="false">AE17</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="16" t="n">
+      <c r="E135" s="15" t="n">
         <f aca="false">E134+1</f>
         <v>78</v>
       </c>
-      <c r="F135" s="17" t="n">
+      <c r="F135" s="16" t="n">
         <f aca="false">(E135-0.5)/$E$137</f>
         <v>0.96875</v>
       </c>
-      <c r="G135" s="17" t="n">
+      <c r="G135" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F135)</f>
         <v>1.86273186742165</v>
       </c>
-      <c r="H135" s="17" t="n">
+      <c r="H135" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="I135" s="21" t="n">
+      <c r="I135" s="20" t="n">
         <f aca="false">AE18</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="16" t="n">
+      <c r="E136" s="15" t="n">
         <f aca="false">E135+1</f>
         <v>79</v>
       </c>
-      <c r="F136" s="17" t="n">
+      <c r="F136" s="16" t="n">
         <f aca="false">(E136-0.5)/$E$137</f>
         <v>0.98125</v>
       </c>
-      <c r="G136" s="17" t="n">
+      <c r="G136" s="16" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F136)</f>
         <v>2.08027845252527</v>
       </c>
-      <c r="H136" s="17" t="n">
+      <c r="H136" s="16" t="n">
         <v>10.2</v>
       </c>
-      <c r="I136" s="21" t="n">
+      <c r="I136" s="20" t="n">
         <f aca="false">AE19</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="22" t="n">
+      <c r="E137" s="21" t="n">
         <f aca="false">E136+1</f>
         <v>80</v>
       </c>
-      <c r="F137" s="23" t="n">
+      <c r="F137" s="22" t="n">
         <f aca="false">(E137-0.5)/$E$137</f>
         <v>0.99375</v>
       </c>
-      <c r="G137" s="23" t="n">
+      <c r="G137" s="22" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F137)</f>
         <v>2.49770547441237</v>
       </c>
-      <c r="H137" s="23" t="n">
+      <c r="H137" s="22" t="n">
         <v>11.2</v>
       </c>
-      <c r="I137" s="27" t="n">
+      <c r="I137" s="26" t="n">
         <f aca="false">AE20</f>
         <v>-3</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="54" t="s">
+      <c r="E141" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F141" s="54"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="54"/>
-      <c r="J141" s="54"/>
-      <c r="K141" s="54"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53"/>
+      <c r="H141" s="53"/>
+      <c r="I141" s="53"/>
+      <c r="J141" s="53"/>
+      <c r="K141" s="53"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="54"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="54"/>
-      <c r="H142" s="54"/>
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="54"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="53"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="55" t="s">
+      <c r="E145" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F145" s="56" t="s">
+      <c r="F145" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G145" s="57" t="s">
+      <c r="G145" s="56" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" s="59" t="n">
+      <c r="E146" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" s="58" t="n">
         <f aca="false">U$5</f>
         <v>22</v>
       </c>
-      <c r="G146" s="42" t="n">
+      <c r="G146" s="41" t="n">
         <f aca="false">AA$5</f>
         <v>11.2</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="16" t="n">
+      <c r="E147" s="15" t="n">
         <f aca="false">E146+1</f>
         <v>2</v>
       </c>
-      <c r="F147" s="17" t="n">
+      <c r="F147" s="16" t="n">
         <f aca="false">V$5</f>
         <v>21</v>
       </c>
-      <c r="G147" s="21" t="n">
+      <c r="G147" s="20" t="n">
         <f aca="false">AB$5</f>
         <v>10.2</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="16" t="n">
+      <c r="E148" s="15" t="n">
         <f aca="false">E147+1</f>
         <v>3</v>
       </c>
-      <c r="F148" s="17" t="n">
+      <c r="F148" s="16" t="n">
         <f aca="false">W$5</f>
         <v>3</v>
       </c>
-      <c r="G148" s="21" t="n">
+      <c r="G148" s="20" t="n">
         <f aca="false">AC$5</f>
         <v>-7.8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="16" t="n">
+      <c r="E149" s="15" t="n">
         <f aca="false">E148+1</f>
         <v>4</v>
       </c>
-      <c r="F149" s="17" t="n">
+      <c r="F149" s="16" t="n">
         <f aca="false">X$5</f>
         <v>4</v>
       </c>
-      <c r="G149" s="21" t="n">
+      <c r="G149" s="20" t="n">
         <f aca="false">AD$5</f>
         <v>-6.8</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="16" t="n">
+      <c r="E150" s="15" t="n">
         <f aca="false">E149+1</f>
         <v>5</v>
       </c>
-      <c r="F150" s="17" t="n">
+      <c r="F150" s="16" t="n">
         <f aca="false">Y$5</f>
         <v>4</v>
       </c>
-      <c r="G150" s="21" t="n">
+      <c r="G150" s="20" t="n">
         <f aca="false">AE$5</f>
         <v>-6.8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="16" t="n">
+      <c r="E151" s="15" t="n">
         <f aca="false">E150+1</f>
         <v>6</v>
       </c>
-      <c r="F151" s="17" t="n">
+      <c r="F151" s="16" t="n">
         <f aca="false">U$6</f>
         <v>1</v>
       </c>
-      <c r="G151" s="21" t="n">
+      <c r="G151" s="20" t="n">
         <f aca="false">AA$6</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="16" t="n">
+      <c r="E152" s="15" t="n">
         <f aca="false">E151+1</f>
         <v>7</v>
       </c>
-      <c r="F152" s="17" t="n">
+      <c r="F152" s="16" t="n">
         <f aca="false">V$6</f>
         <v>2</v>
       </c>
-      <c r="G152" s="21" t="n">
+      <c r="G152" s="20" t="n">
         <f aca="false">AB$6</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="16" t="n">
+      <c r="E153" s="15" t="n">
         <f aca="false">E152+1</f>
         <v>8</v>
       </c>
-      <c r="F153" s="17" t="n">
+      <c r="F153" s="16" t="n">
         <f aca="false">W$6</f>
         <v>2</v>
       </c>
-      <c r="G153" s="21" t="n">
+      <c r="G153" s="20" t="n">
         <f aca="false">AC$6</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="16" t="n">
+      <c r="E154" s="15" t="n">
         <f aca="false">E153+1</f>
         <v>9</v>
       </c>
-      <c r="F154" s="17" t="n">
+      <c r="F154" s="16" t="n">
         <f aca="false">X$6</f>
         <v>4</v>
       </c>
-      <c r="G154" s="21" t="n">
+      <c r="G154" s="20" t="n">
         <f aca="false">AD$6</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="16" t="n">
+      <c r="E155" s="15" t="n">
         <f aca="false">E154+1</f>
         <v>10</v>
       </c>
-      <c r="F155" s="17" t="n">
+      <c r="F155" s="16" t="n">
         <f aca="false">Y$6</f>
         <v>5</v>
       </c>
-      <c r="G155" s="21" t="n">
+      <c r="G155" s="20" t="n">
         <f aca="false">AE$6</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="16" t="n">
+      <c r="E156" s="15" t="n">
         <f aca="false">E155+1</f>
         <v>11</v>
       </c>
-      <c r="F156" s="17" t="n">
+      <c r="F156" s="16" t="n">
         <f aca="false">U$7</f>
         <v>4</v>
       </c>
-      <c r="G156" s="21" t="n">
+      <c r="G156" s="20" t="n">
         <f aca="false">AA$7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="16" t="n">
+      <c r="E157" s="15" t="n">
         <f aca="false">E156+1</f>
         <v>12</v>
       </c>
-      <c r="F157" s="17" t="n">
+      <c r="F157" s="16" t="n">
         <f aca="false">V$7</f>
         <v>3</v>
       </c>
-      <c r="G157" s="21" t="n">
+      <c r="G157" s="20" t="n">
         <f aca="false">AB$7</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="16" t="n">
+      <c r="E158" s="15" t="n">
         <f aca="false">E157+1</f>
         <v>13</v>
       </c>
-      <c r="F158" s="17" t="n">
+      <c r="F158" s="16" t="n">
         <f aca="false">W$7</f>
         <v>4</v>
       </c>
-      <c r="G158" s="21" t="n">
+      <c r="G158" s="20" t="n">
         <f aca="false">AC$7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="16" t="n">
+      <c r="E159" s="15" t="n">
         <f aca="false">E158+1</f>
         <v>14</v>
       </c>
-      <c r="F159" s="17" t="n">
+      <c r="F159" s="16" t="n">
         <f aca="false">X$7</f>
         <v>4</v>
       </c>
-      <c r="G159" s="21" t="n">
+      <c r="G159" s="20" t="n">
         <f aca="false">AD$7</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="16" t="n">
+      <c r="E160" s="15" t="n">
         <f aca="false">E159+1</f>
         <v>15</v>
       </c>
-      <c r="F160" s="17" t="n">
+      <c r="F160" s="16" t="n">
         <f aca="false">Y$7</f>
         <v>3</v>
       </c>
-      <c r="G160" s="21" t="n">
+      <c r="G160" s="20" t="n">
         <f aca="false">AE$7</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="16" t="n">
+      <c r="E161" s="15" t="n">
         <f aca="false">E160+1</f>
         <v>16</v>
       </c>
-      <c r="F161" s="17" t="n">
+      <c r="F161" s="16" t="n">
         <f aca="false">U$8</f>
         <v>4</v>
       </c>
-      <c r="G161" s="21" t="n">
+      <c r="G161" s="20" t="n">
         <f aca="false">AA$8</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="16" t="n">
+      <c r="E162" s="15" t="n">
         <f aca="false">E161+1</f>
         <v>17</v>
       </c>
-      <c r="F162" s="17" t="n">
+      <c r="F162" s="16" t="n">
         <f aca="false">V$8</f>
         <v>9</v>
       </c>
-      <c r="G162" s="21" t="n">
+      <c r="G162" s="20" t="n">
         <f aca="false">AB$8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="16" t="n">
+      <c r="E163" s="15" t="n">
         <f aca="false">E162+1</f>
         <v>18</v>
       </c>
-      <c r="F163" s="17" t="n">
+      <c r="F163" s="16" t="n">
         <f aca="false">W$8</f>
         <v>9</v>
       </c>
-      <c r="G163" s="21" t="n">
+      <c r="G163" s="20" t="n">
         <f aca="false">AC$8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="16" t="n">
+      <c r="E164" s="15" t="n">
         <f aca="false">E163+1</f>
         <v>19</v>
       </c>
-      <c r="F164" s="17" t="n">
+      <c r="F164" s="16" t="n">
         <f aca="false">X$8</f>
         <v>0</v>
       </c>
-      <c r="G164" s="21" t="n">
+      <c r="G164" s="20" t="n">
         <f aca="false">AD$8</f>
         <v>-6.2</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="16" t="n">
+      <c r="E165" s="15" t="n">
         <f aca="false">E164+1</f>
         <v>20</v>
       </c>
-      <c r="F165" s="17" t="n">
+      <c r="F165" s="16" t="n">
         <f aca="false">Y$8</f>
         <v>9</v>
       </c>
-      <c r="G165" s="21" t="n">
+      <c r="G165" s="20" t="n">
         <f aca="false">AE$8</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="16" t="n">
+      <c r="E166" s="15" t="n">
         <f aca="false">E165+1</f>
         <v>21</v>
       </c>
-      <c r="F166" s="17" t="n">
+      <c r="F166" s="16" t="n">
         <f aca="false">U$9</f>
         <v>7</v>
       </c>
-      <c r="G166" s="21" t="n">
+      <c r="G166" s="20" t="n">
         <f aca="false">AA$9</f>
         <v>-1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="16" t="n">
+      <c r="E167" s="15" t="n">
         <f aca="false">E166+1</f>
         <v>22</v>
       </c>
-      <c r="F167" s="17" t="n">
+      <c r="F167" s="16" t="n">
         <f aca="false">V$9</f>
         <v>7</v>
       </c>
-      <c r="G167" s="21" t="n">
+      <c r="G167" s="20" t="n">
         <f aca="false">AB$9</f>
         <v>-1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="16" t="n">
+      <c r="E168" s="15" t="n">
         <f aca="false">E167+1</f>
         <v>23</v>
       </c>
-      <c r="F168" s="17" t="n">
+      <c r="F168" s="16" t="n">
         <f aca="false">W$9</f>
         <v>9</v>
       </c>
-      <c r="G168" s="21" t="n">
+      <c r="G168" s="20" t="n">
         <f aca="false">AC$9</f>
         <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="16" t="n">
+      <c r="E169" s="15" t="n">
         <f aca="false">E168+1</f>
         <v>24</v>
       </c>
-      <c r="F169" s="17" t="n">
+      <c r="F169" s="16" t="n">
         <f aca="false">X$9</f>
         <v>8</v>
       </c>
-      <c r="G169" s="21" t="n">
+      <c r="G169" s="20" t="n">
         <f aca="false">AD$9</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="16" t="n">
+      <c r="E170" s="15" t="n">
         <f aca="false">E169+1</f>
         <v>25</v>
       </c>
-      <c r="F170" s="17" t="n">
+      <c r="F170" s="16" t="n">
         <f aca="false">Y$9</f>
         <v>9</v>
       </c>
-      <c r="G170" s="21" t="n">
+      <c r="G170" s="20" t="n">
         <f aca="false">AE$9</f>
         <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="16" t="n">
+      <c r="E171" s="15" t="n">
         <f aca="false">E170+1</f>
         <v>26</v>
       </c>
-      <c r="F171" s="17" t="n">
+      <c r="F171" s="16" t="n">
         <f aca="false">U$10</f>
         <v>5</v>
       </c>
-      <c r="G171" s="21" t="n">
+      <c r="G171" s="20" t="n">
         <f aca="false">AA$10</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="16" t="n">
+      <c r="E172" s="15" t="n">
         <f aca="false">E171+1</f>
         <v>27</v>
       </c>
-      <c r="F172" s="17" t="n">
+      <c r="F172" s="16" t="n">
         <f aca="false">V$10</f>
         <v>5</v>
       </c>
-      <c r="G172" s="21" t="n">
+      <c r="G172" s="20" t="n">
         <f aca="false">AB$10</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="16" t="n">
+      <c r="E173" s="15" t="n">
         <f aca="false">E172+1</f>
         <v>28</v>
       </c>
-      <c r="F173" s="17" t="n">
+      <c r="F173" s="16" t="n">
         <f aca="false">W$10</f>
         <v>7</v>
       </c>
-      <c r="G173" s="21" t="n">
+      <c r="G173" s="20" t="n">
         <f aca="false">AC$10</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="16" t="n">
+      <c r="E174" s="15" t="n">
         <f aca="false">E173+1</f>
         <v>29</v>
       </c>
-      <c r="F174" s="17" t="n">
+      <c r="F174" s="16" t="n">
         <f aca="false">X$10</f>
         <v>8</v>
       </c>
-      <c r="G174" s="21" t="n">
+      <c r="G174" s="20" t="n">
         <f aca="false">AD$10</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="16" t="n">
+      <c r="E175" s="15" t="n">
         <f aca="false">E174+1</f>
         <v>30</v>
       </c>
-      <c r="F175" s="17" t="n">
+      <c r="F175" s="16" t="n">
         <f aca="false">Y$10</f>
         <v>9</v>
       </c>
-      <c r="G175" s="21" t="n">
+      <c r="G175" s="20" t="n">
         <f aca="false">AE$10</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="16" t="n">
+      <c r="E176" s="15" t="n">
         <f aca="false">E175+1</f>
         <v>31</v>
       </c>
-      <c r="F176" s="17" t="n">
+      <c r="F176" s="16" t="n">
         <f aca="false">U$11</f>
         <v>6</v>
       </c>
-      <c r="G176" s="21" t="n">
+      <c r="G176" s="20" t="n">
         <f aca="false">AA$11</f>
         <v>-1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="16" t="n">
+      <c r="E177" s="15" t="n">
         <f aca="false">E176+1</f>
         <v>32</v>
       </c>
-      <c r="F177" s="17" t="n">
+      <c r="F177" s="16" t="n">
         <f aca="false">V$11</f>
         <v>7</v>
       </c>
-      <c r="G177" s="21" t="n">
+      <c r="G177" s="20" t="n">
         <f aca="false">AB$11</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="16" t="n">
+      <c r="E178" s="15" t="n">
         <f aca="false">E177+1</f>
         <v>33</v>
       </c>
-      <c r="F178" s="17" t="n">
+      <c r="F178" s="16" t="n">
         <f aca="false">W$11</f>
         <v>6</v>
       </c>
-      <c r="G178" s="21" t="n">
+      <c r="G178" s="20" t="n">
         <f aca="false">AC$11</f>
         <v>-1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="16" t="n">
+      <c r="E179" s="15" t="n">
         <f aca="false">E178+1</f>
         <v>34</v>
       </c>
-      <c r="F179" s="17" t="n">
+      <c r="F179" s="16" t="n">
         <f aca="false">X$11</f>
         <v>8</v>
       </c>
-      <c r="G179" s="21" t="n">
+      <c r="G179" s="20" t="n">
         <f aca="false">AD$11</f>
         <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="16" t="n">
+      <c r="E180" s="15" t="n">
         <f aca="false">E179+1</f>
         <v>35</v>
       </c>
-      <c r="F180" s="17" t="n">
+      <c r="F180" s="16" t="n">
         <f aca="false">Y$11</f>
         <v>8</v>
       </c>
-      <c r="G180" s="21" t="n">
+      <c r="G180" s="20" t="n">
         <f aca="false">AE$11</f>
         <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="16" t="n">
+      <c r="E181" s="15" t="n">
         <f aca="false">E180+1</f>
         <v>36</v>
       </c>
-      <c r="F181" s="17" t="n">
+      <c r="F181" s="16" t="n">
         <f aca="false">U$12</f>
         <v>3</v>
       </c>
-      <c r="G181" s="21" t="n">
+      <c r="G181" s="20" t="n">
         <f aca="false">AA$12</f>
         <v>-3.2</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="16" t="n">
+      <c r="E182" s="15" t="n">
         <f aca="false">E181+1</f>
         <v>37</v>
       </c>
-      <c r="F182" s="17" t="n">
+      <c r="F182" s="16" t="n">
         <f aca="false">V$12</f>
         <v>6</v>
       </c>
-      <c r="G182" s="21" t="n">
+      <c r="G182" s="20" t="n">
         <f aca="false">AB$12</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="16" t="n">
+      <c r="E183" s="15" t="n">
         <f aca="false">E182+1</f>
         <v>38</v>
       </c>
-      <c r="F183" s="17" t="n">
+      <c r="F183" s="16" t="n">
         <f aca="false">W$12</f>
         <v>7</v>
       </c>
-      <c r="G183" s="21" t="n">
+      <c r="G183" s="20" t="n">
         <f aca="false">AC$12</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="16" t="n">
+      <c r="E184" s="15" t="n">
         <f aca="false">E183+1</f>
         <v>39</v>
       </c>
-      <c r="F184" s="17" t="n">
+      <c r="F184" s="16" t="n">
         <f aca="false">X$12</f>
         <v>7</v>
       </c>
-      <c r="G184" s="21" t="n">
+      <c r="G184" s="20" t="n">
         <f aca="false">AD$12</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="16" t="n">
+      <c r="E185" s="15" t="n">
         <f aca="false">E184+1</f>
         <v>40</v>
       </c>
-      <c r="F185" s="17" t="n">
+      <c r="F185" s="16" t="n">
         <f aca="false">Y$12</f>
         <v>8</v>
       </c>
-      <c r="G185" s="21" t="n">
+      <c r="G185" s="20" t="n">
         <f aca="false">AE$12</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="16" t="n">
+      <c r="E186" s="15" t="n">
         <f aca="false">E185+1</f>
         <v>41</v>
       </c>
-      <c r="F186" s="17" t="n">
+      <c r="F186" s="16" t="n">
         <f aca="false">U$13</f>
         <v>5</v>
       </c>
-      <c r="G186" s="21" t="n">
+      <c r="G186" s="20" t="n">
         <f aca="false">AA$13</f>
         <v>-0.4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="16" t="n">
+      <c r="E187" s="15" t="n">
         <f aca="false">E186+1</f>
         <v>42</v>
       </c>
-      <c r="F187" s="17" t="n">
+      <c r="F187" s="16" t="n">
         <f aca="false">V$13</f>
         <v>4</v>
       </c>
-      <c r="G187" s="21" t="n">
+      <c r="G187" s="20" t="n">
         <f aca="false">AB$13</f>
         <v>-1.4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="16" t="n">
+      <c r="E188" s="15" t="n">
         <f aca="false">E187+1</f>
         <v>43</v>
       </c>
-      <c r="F188" s="17" t="n">
+      <c r="F188" s="16" t="n">
         <f aca="false">W$13</f>
         <v>3</v>
       </c>
-      <c r="G188" s="21" t="n">
+      <c r="G188" s="20" t="n">
         <f aca="false">AC$13</f>
         <v>-2.4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="16" t="n">
+      <c r="E189" s="15" t="n">
         <f aca="false">E188+1</f>
         <v>44</v>
       </c>
-      <c r="F189" s="17" t="n">
+      <c r="F189" s="16" t="n">
         <f aca="false">X$13</f>
         <v>8</v>
       </c>
-      <c r="G189" s="21" t="n">
+      <c r="G189" s="20" t="n">
         <f aca="false">AD$13</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="16" t="n">
+      <c r="E190" s="15" t="n">
         <f aca="false">E189+1</f>
         <v>45</v>
       </c>
-      <c r="F190" s="17" t="n">
+      <c r="F190" s="16" t="n">
         <f aca="false">Y$13</f>
         <v>7</v>
       </c>
-      <c r="G190" s="21" t="n">
+      <c r="G190" s="20" t="n">
         <f aca="false">AE$13</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="16" t="n">
+      <c r="E191" s="15" t="n">
         <f aca="false">E190+1</f>
         <v>46</v>
       </c>
-      <c r="F191" s="17" t="n">
+      <c r="F191" s="16" t="n">
         <f aca="false">U$14</f>
         <v>3</v>
       </c>
-      <c r="G191" s="21" t="n">
+      <c r="G191" s="20" t="n">
         <f aca="false">AA$14</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="16" t="n">
+      <c r="E192" s="15" t="n">
         <f aca="false">E191+1</f>
         <v>47</v>
       </c>
-      <c r="F192" s="17" t="n">
+      <c r="F192" s="16" t="n">
         <f aca="false">V$14</f>
         <v>4</v>
       </c>
-      <c r="G192" s="21" t="n">
+      <c r="G192" s="20" t="n">
         <f aca="false">AB$14</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="16" t="n">
+      <c r="E193" s="15" t="n">
         <f aca="false">E192+1</f>
         <v>48</v>
       </c>
-      <c r="F193" s="17" t="n">
+      <c r="F193" s="16" t="n">
         <f aca="false">W$14</f>
         <v>1</v>
       </c>
-      <c r="G193" s="21" t="n">
+      <c r="G193" s="20" t="n">
         <f aca="false">AC$14</f>
         <v>-1.6</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="16" t="n">
+      <c r="E194" s="15" t="n">
         <f aca="false">E193+1</f>
         <v>49</v>
       </c>
-      <c r="F194" s="17" t="n">
+      <c r="F194" s="16" t="n">
         <f aca="false">X$14</f>
         <v>2</v>
       </c>
-      <c r="G194" s="21" t="n">
+      <c r="G194" s="20" t="n">
         <f aca="false">AD$14</f>
         <v>-0.6</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="16" t="n">
+      <c r="E195" s="15" t="n">
         <f aca="false">E194+1</f>
         <v>50</v>
       </c>
-      <c r="F195" s="17" t="n">
+      <c r="F195" s="16" t="n">
         <f aca="false">Y$14</f>
         <v>3</v>
       </c>
-      <c r="G195" s="21" t="n">
+      <c r="G195" s="20" t="n">
         <f aca="false">AE$14</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="16" t="n">
+      <c r="E196" s="15" t="n">
         <f aca="false">E195+1</f>
         <v>51</v>
       </c>
-      <c r="F196" s="17" t="n">
+      <c r="F196" s="16" t="n">
         <f aca="false">U$15</f>
         <v>4</v>
       </c>
-      <c r="G196" s="21" t="n">
+      <c r="G196" s="20" t="n">
         <f aca="false">AA$15</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="16" t="n">
+      <c r="E197" s="15" t="n">
         <f aca="false">E196+1</f>
         <v>52</v>
       </c>
-      <c r="F197" s="17" t="n">
+      <c r="F197" s="16" t="n">
         <f aca="false">V$15</f>
         <v>3</v>
       </c>
-      <c r="G197" s="21" t="n">
+      <c r="G197" s="20" t="n">
         <f aca="false">AB$15</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="16" t="n">
+      <c r="E198" s="15" t="n">
         <f aca="false">E197+1</f>
         <v>53</v>
       </c>
-      <c r="F198" s="17" t="n">
+      <c r="F198" s="16" t="n">
         <f aca="false">W$15</f>
         <v>2</v>
       </c>
-      <c r="G198" s="21" t="n">
+      <c r="G198" s="20" t="n">
         <f aca="false">AC$15</f>
         <v>-0.8</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="16" t="n">
+      <c r="E199" s="15" t="n">
         <f aca="false">E198+1</f>
         <v>54</v>
       </c>
-      <c r="F199" s="17" t="n">
+      <c r="F199" s="16" t="n">
         <f aca="false">X$15</f>
         <v>1</v>
       </c>
-      <c r="G199" s="21" t="n">
+      <c r="G199" s="20" t="n">
         <f aca="false">AD$15</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="16" t="n">
+      <c r="E200" s="15" t="n">
         <f aca="false">E199+1</f>
         <v>55</v>
       </c>
-      <c r="F200" s="17" t="n">
+      <c r="F200" s="16" t="n">
         <f aca="false">Y$15</f>
         <v>4</v>
       </c>
-      <c r="G200" s="21" t="n">
+      <c r="G200" s="20" t="n">
         <f aca="false">AE$15</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="16" t="n">
+      <c r="E201" s="15" t="n">
         <f aca="false">E200+1</f>
         <v>56</v>
       </c>
-      <c r="F201" s="17" t="n">
+      <c r="F201" s="16" t="n">
         <f aca="false">U$16</f>
         <v>3</v>
       </c>
-      <c r="G201" s="21" t="n">
+      <c r="G201" s="20" t="n">
         <f aca="false">AA$16</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="16" t="n">
+      <c r="E202" s="15" t="n">
         <f aca="false">E201+1</f>
         <v>57</v>
       </c>
-      <c r="F202" s="17" t="n">
+      <c r="F202" s="16" t="n">
         <f aca="false">V$16</f>
         <v>5</v>
       </c>
-      <c r="G202" s="21" t="n">
+      <c r="G202" s="20" t="n">
         <f aca="false">AB$16</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="16" t="n">
+      <c r="E203" s="15" t="n">
         <f aca="false">E202+1</f>
         <v>58</v>
       </c>
-      <c r="F203" s="17" t="n">
+      <c r="F203" s="16" t="n">
         <f aca="false">W$16</f>
         <v>1</v>
       </c>
-      <c r="G203" s="21" t="n">
+      <c r="G203" s="20" t="n">
         <f aca="false">AC$16</f>
         <v>-1.2</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="16" t="n">
+      <c r="E204" s="15" t="n">
         <f aca="false">E203+1</f>
         <v>59</v>
       </c>
-      <c r="F204" s="17" t="n">
+      <c r="F204" s="16" t="n">
         <f aca="false">X$16</f>
         <v>0</v>
       </c>
-      <c r="G204" s="21" t="n">
+      <c r="G204" s="20" t="n">
         <f aca="false">AD$16</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="16" t="n">
+      <c r="E205" s="15" t="n">
         <f aca="false">E204+1</f>
         <v>60</v>
       </c>
-      <c r="F205" s="17" t="n">
+      <c r="F205" s="16" t="n">
         <f aca="false">Y$16</f>
         <v>2</v>
       </c>
-      <c r="G205" s="21" t="n">
+      <c r="G205" s="20" t="n">
         <f aca="false">AE$16</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="16" t="n">
+      <c r="E206" s="15" t="n">
         <f aca="false">E205+1</f>
         <v>61</v>
       </c>
-      <c r="F206" s="17" t="n">
+      <c r="F206" s="16" t="n">
         <f aca="false">U$17</f>
         <v>2</v>
       </c>
-      <c r="G206" s="21" t="n">
+      <c r="G206" s="20" t="n">
         <f aca="false">AA$17</f>
         <v>-3.8</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="16" t="n">
+      <c r="E207" s="15" t="n">
         <f aca="false">E206+1</f>
         <v>62</v>
       </c>
-      <c r="F207" s="17" t="n">
+      <c r="F207" s="16" t="n">
         <f aca="false">V$17</f>
         <v>1</v>
       </c>
-      <c r="G207" s="21" t="n">
+      <c r="G207" s="20" t="n">
         <f aca="false">AB$17</f>
         <v>-4.8</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="16" t="n">
+      <c r="E208" s="15" t="n">
         <f aca="false">E207+1</f>
         <v>63</v>
       </c>
-      <c r="F208" s="17" t="n">
+      <c r="F208" s="16" t="n">
         <f aca="false">W$17</f>
         <v>8</v>
       </c>
-      <c r="G208" s="21" t="n">
+      <c r="G208" s="20" t="n">
         <f aca="false">AC$17</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="16" t="n">
+      <c r="E209" s="15" t="n">
         <f aca="false">E208+1</f>
         <v>64</v>
       </c>
-      <c r="F209" s="17" t="n">
+      <c r="F209" s="16" t="n">
         <f aca="false">X$17</f>
         <v>9</v>
       </c>
-      <c r="G209" s="21" t="n">
+      <c r="G209" s="20" t="n">
         <f aca="false">AD$17</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="16" t="n">
+      <c r="E210" s="15" t="n">
         <f aca="false">E209+1</f>
         <v>65</v>
       </c>
-      <c r="F210" s="17" t="n">
+      <c r="F210" s="16" t="n">
         <f aca="false">Y$17</f>
         <v>9</v>
       </c>
-      <c r="G210" s="21" t="n">
+      <c r="G210" s="20" t="n">
         <f aca="false">AE$17</f>
         <v>3.2</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="16" t="n">
+      <c r="E211" s="15" t="n">
         <f aca="false">E210+1</f>
         <v>66</v>
       </c>
-      <c r="F211" s="17" t="n">
+      <c r="F211" s="16" t="n">
         <f aca="false">U$18</f>
         <v>1</v>
       </c>
-      <c r="G211" s="21" t="n">
+      <c r="G211" s="20" t="n">
         <f aca="false">AA$18</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="16" t="n">
+      <c r="E212" s="15" t="n">
         <f aca="false">E211+1</f>
         <v>67</v>
       </c>
-      <c r="F212" s="17" t="n">
+      <c r="F212" s="16" t="n">
         <f aca="false">V$18</f>
         <v>7</v>
       </c>
-      <c r="G212" s="21" t="n">
+      <c r="G212" s="20" t="n">
         <f aca="false">AB$18</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="16" t="n">
+      <c r="E213" s="15" t="n">
         <f aca="false">E212+1</f>
         <v>68</v>
       </c>
-      <c r="F213" s="17" t="n">
+      <c r="F213" s="16" t="n">
         <f aca="false">W$18</f>
         <v>3</v>
       </c>
-      <c r="G213" s="21" t="n">
+      <c r="G213" s="20" t="n">
         <f aca="false">AC$18</f>
         <v>-0.2</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="16" t="n">
+      <c r="E214" s="15" t="n">
         <f aca="false">E213+1</f>
         <v>69</v>
       </c>
-      <c r="F214" s="17" t="n">
+      <c r="F214" s="16" t="n">
         <f aca="false">X$18</f>
         <v>4</v>
       </c>
-      <c r="G214" s="21" t="n">
+      <c r="G214" s="20" t="n">
         <f aca="false">AD$18</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="16" t="n">
+      <c r="E215" s="15" t="n">
         <f aca="false">E214+1</f>
         <v>70</v>
       </c>
-      <c r="F215" s="17" t="n">
+      <c r="F215" s="16" t="n">
         <f aca="false">Y$18</f>
         <v>1</v>
       </c>
-      <c r="G215" s="21" t="n">
+      <c r="G215" s="20" t="n">
         <f aca="false">AE$18</f>
         <v>-2.2</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="16" t="n">
+      <c r="E216" s="15" t="n">
         <f aca="false">E215+1</f>
         <v>71</v>
       </c>
-      <c r="F216" s="17" t="n">
+      <c r="F216" s="16" t="n">
         <f aca="false">U$19</f>
         <v>2</v>
       </c>
-      <c r="G216" s="21" t="n">
+      <c r="G216" s="20" t="n">
         <f aca="false">AA$19</f>
         <v>-3.8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="16" t="n">
+      <c r="E217" s="15" t="n">
         <f aca="false">E216+1</f>
         <v>72</v>
       </c>
-      <c r="F217" s="17" t="n">
+      <c r="F217" s="16" t="n">
         <f aca="false">V$19</f>
         <v>4</v>
       </c>
-      <c r="G217" s="21" t="n">
+      <c r="G217" s="20" t="n">
         <f aca="false">AB$19</f>
         <v>-1.8</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="16" t="n">
+      <c r="E218" s="15" t="n">
         <f aca="false">E217+1</f>
         <v>73</v>
       </c>
-      <c r="F218" s="17" t="n">
+      <c r="F218" s="16" t="n">
         <f aca="false">W$19</f>
         <v>7</v>
       </c>
-      <c r="G218" s="21" t="n">
+      <c r="G218" s="20" t="n">
         <f aca="false">AC$19</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="16" t="n">
+      <c r="E219" s="15" t="n">
         <f aca="false">E218+1</f>
         <v>74</v>
       </c>
-      <c r="F219" s="17" t="n">
+      <c r="F219" s="16" t="n">
         <f aca="false">X$19</f>
         <v>8</v>
       </c>
-      <c r="G219" s="21" t="n">
+      <c r="G219" s="20" t="n">
         <f aca="false">AD$19</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="16" t="n">
+      <c r="E220" s="15" t="n">
         <f aca="false">E219+1</f>
         <v>75</v>
       </c>
-      <c r="F220" s="17" t="n">
+      <c r="F220" s="16" t="n">
         <f aca="false">Y$19</f>
         <v>8</v>
       </c>
-      <c r="G220" s="21" t="n">
+      <c r="G220" s="20" t="n">
         <f aca="false">AE$19</f>
         <v>2.2</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="16" t="n">
+      <c r="E221" s="15" t="n">
         <f aca="false">E220+1</f>
         <v>76</v>
       </c>
-      <c r="F221" s="17" t="n">
+      <c r="F221" s="16" t="n">
         <f aca="false">U$20</f>
         <v>1</v>
       </c>
-      <c r="G221" s="21" t="n">
+      <c r="G221" s="20" t="n">
         <f aca="false">AA$20</f>
         <v>-2</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="16" t="n">
+      <c r="E222" s="15" t="n">
         <f aca="false">E221+1</f>
         <v>77</v>
       </c>
-      <c r="F222" s="17" t="n">
+      <c r="F222" s="16" t="n">
         <f aca="false">V$20</f>
         <v>2</v>
       </c>
-      <c r="G222" s="21" t="n">
+      <c r="G222" s="20" t="n">
         <f aca="false">AB$20</f>
         <v>-1</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="16" t="n">
+      <c r="E223" s="15" t="n">
         <f aca="false">E222+1</f>
         <v>78</v>
       </c>
-      <c r="F223" s="17" t="n">
+      <c r="F223" s="16" t="n">
         <f aca="false">W$20</f>
         <v>3</v>
       </c>
-      <c r="G223" s="21" t="n">
+      <c r="G223" s="20" t="n">
         <f aca="false">AC$20</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="16" t="n">
+      <c r="E224" s="15" t="n">
         <f aca="false">E223+1</f>
         <v>79</v>
       </c>
-      <c r="F224" s="17" t="n">
+      <c r="F224" s="16" t="n">
         <f aca="false">X$20</f>
         <v>9</v>
       </c>
-      <c r="G224" s="21" t="n">
+      <c r="G224" s="20" t="n">
         <f aca="false">AD$20</f>
         <v>6</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="22" t="n">
+      <c r="E225" s="21" t="n">
         <f aca="false">E224+1</f>
         <v>80</v>
       </c>
-      <c r="F225" s="23" t="n">
+      <c r="F225" s="22" t="n">
         <f aca="false">Y$20</f>
         <v>0</v>
       </c>
-      <c r="G225" s="27" t="n">
+      <c r="G225" s="26" t="n">
         <f aca="false">AE$20</f>
         <v>-3</v>
       </c>
